--- a/CNIntelligibility/transposedIntelligibility_lda.xlsx
+++ b/CNIntelligibility/transposedIntelligibility_lda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,57 +516,47 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>i66</t>
+          <t>i70</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>i70</t>
+          <t>s58</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>s58</t>
+          <t>s62</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>s62</t>
+          <t>s66</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>s66</t>
+          <t>s70</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>s70</t>
+          <t>v58</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>v58</t>
+          <t>v62</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>v62</t>
+          <t>v66</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>v66</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>v70</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>空白</t>
         </is>
       </c>
     </row>
@@ -577,82 +567,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999024271965027</v>
+        <v>0.5676090717315674</v>
       </c>
       <c r="C2" t="n">
-        <v>0.553090274333954</v>
+        <v>0.9998632669448853</v>
       </c>
       <c r="D2" t="n">
-        <v>0.99562656879425</v>
+        <v>0.9966397285461426</v>
       </c>
       <c r="E2" t="n">
-        <v>0.544571757316589</v>
+        <v>0.5416707396507263</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999291896820069</v>
+        <v>0.9076354503631592</v>
       </c>
       <c r="G2" t="n">
-        <v>0.995737731456757</v>
+        <v>0.5504695177078247</v>
       </c>
       <c r="H2" t="n">
-        <v>0.999685645103455</v>
+        <v>0.725428581237793</v>
       </c>
       <c r="I2" t="n">
-        <v>0.997899174690247</v>
+        <v>0.9921685457229614</v>
       </c>
       <c r="J2" t="n">
-        <v>0.719513773918152</v>
+        <v>0.9962074756622314</v>
       </c>
       <c r="K2" t="n">
-        <v>0.999734044075012</v>
+        <v>0.9997758865356444</v>
       </c>
       <c r="L2" t="n">
-        <v>0.999289631843567</v>
+        <v>0.9998847246170044</v>
       </c>
       <c r="M2" t="n">
-        <v>0.999878704547882</v>
+        <v>0.9978463649749756</v>
       </c>
       <c r="N2" t="n">
-        <v>0.622577846050262</v>
+        <v>0.9998952150344848</v>
       </c>
       <c r="O2" t="n">
-        <v>0.999947786331177</v>
+        <v>0.91593998670578</v>
       </c>
       <c r="P2" t="n">
-        <v>0.710995614528656</v>
+        <v>0.5466160774230957</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.710995614528656</v>
+        <v>0.302801638841629</v>
       </c>
       <c r="R2" t="n">
-        <v>0.905595183372498</v>
+        <v>0.9997502565383912</v>
       </c>
       <c r="S2" t="n">
-        <v>0.99992561340332</v>
+        <v>0.9965237379074096</v>
       </c>
       <c r="T2" t="n">
-        <v>0.601075887680054</v>
+        <v>0.9999520182609558</v>
       </c>
       <c r="U2" t="n">
-        <v>0.99998128414154</v>
+        <v>0.999978005886078</v>
       </c>
       <c r="V2" t="n">
-        <v>0.999972879886627</v>
+        <v>0.5361308455467224</v>
       </c>
       <c r="W2" t="n">
-        <v>0.999702572822571</v>
+        <v>0.7947105169296265</v>
       </c>
       <c r="X2" t="n">
-        <v>0.999713838100433</v>
+        <v>0.9949976205825806</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.839884877204895</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.999930679798126</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.999478280544281</v>
+        <v>0.5467126965522766</v>
       </c>
     </row>
     <row r="3">
@@ -662,82 +646,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999898076057434</v>
+        <v>0.9999982714653016</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999931156635284</v>
+        <v>0.9997247457504272</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9941558837890619</v>
+        <v>0.9992216229438782</v>
       </c>
       <c r="E3" t="n">
-        <v>0.994101881980896</v>
+        <v>0.994907021522522</v>
       </c>
       <c r="F3" t="n">
-        <v>0.796741545200348</v>
+        <v>0.9994879961013794</v>
       </c>
       <c r="G3" t="n">
-        <v>0.999944686889648</v>
+        <v>0.9998490810394288</v>
       </c>
       <c r="H3" t="n">
-        <v>0.999894857406616</v>
+        <v>0.999303102493286</v>
       </c>
       <c r="I3" t="n">
-        <v>0.58705472946167</v>
+        <v>0.9986677765846252</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9981609582901</v>
+        <v>0.9982438683509828</v>
       </c>
       <c r="K3" t="n">
-        <v>0.560402989387512</v>
+        <v>0.4569806456565857</v>
       </c>
       <c r="L3" t="n">
-        <v>0.999982118606567</v>
+        <v>0.5367461442947388</v>
       </c>
       <c r="M3" t="n">
-        <v>0.99915486574173</v>
+        <v>0.0810106396675109</v>
       </c>
       <c r="N3" t="n">
-        <v>0.998701572418213</v>
+        <v>0.9999954700469972</v>
       </c>
       <c r="O3" t="n">
-        <v>0.999866008758545</v>
+        <v>0.9996030926704408</v>
       </c>
       <c r="P3" t="n">
-        <v>0.999397456645966</v>
+        <v>0.5283523797988892</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.999397456645966</v>
+        <v>0.5704013705253601</v>
       </c>
       <c r="R3" t="n">
-        <v>0.763497948646545</v>
+        <v>0.9987916946411132</v>
       </c>
       <c r="S3" t="n">
-        <v>0.999910950660706</v>
+        <v>0.8381533622741699</v>
       </c>
       <c r="T3" t="n">
-        <v>0.580736398696899</v>
+        <v>0.540553092956543</v>
       </c>
       <c r="U3" t="n">
-        <v>0.999862909317017</v>
+        <v>0.4278679490089416</v>
       </c>
       <c r="V3" t="n">
-        <v>0.649274110794067</v>
+        <v>0.9999719858169556</v>
       </c>
       <c r="W3" t="n">
-        <v>0.536702752113342</v>
+        <v>0.999903917312622</v>
       </c>
       <c r="X3" t="n">
-        <v>0.999926328659058</v>
+        <v>0.99994558095932</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.999944806098938</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.918176889419556</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.999979615211487</v>
+        <v>0.9999919533729552</v>
       </c>
     </row>
     <row r="4">
@@ -747,82 +725,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999934077262878</v>
+        <v>0.535697877407074</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999995291233063</v>
+        <v>0.9999916553497314</v>
       </c>
       <c r="D4" t="n">
-        <v>0.911891102790832</v>
+        <v>0.9983325600624084</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998819231987</v>
+        <v>0.5445296764373779</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8505179882049561</v>
+        <v>0.999941885471344</v>
       </c>
       <c r="G4" t="n">
-        <v>0.45597380399704</v>
+        <v>0.4445425868034363</v>
       </c>
       <c r="H4" t="n">
-        <v>0.541305720806122</v>
+        <v>0.9999200105667114</v>
       </c>
       <c r="I4" t="n">
-        <v>0.965063869953156</v>
+        <v>0.9648817777633668</v>
       </c>
       <c r="J4" t="n">
-        <v>0.57003116607666</v>
+        <v>0.999253273010254</v>
       </c>
       <c r="K4" t="n">
-        <v>0.999984383583069</v>
+        <v>0.8301308155059814</v>
       </c>
       <c r="L4" t="n">
-        <v>0.966841578483582</v>
+        <v>0.5367972850799561</v>
       </c>
       <c r="M4" t="n">
-        <v>0.999980509281158</v>
+        <v>0.999969720840454</v>
       </c>
       <c r="N4" t="n">
-        <v>0.484046190977097</v>
+        <v>0.6313952207565308</v>
       </c>
       <c r="O4" t="n">
-        <v>0.999939680099487</v>
+        <v>0.5385081768035889</v>
       </c>
       <c r="P4" t="n">
-        <v>0.999395132064819</v>
+        <v>0.6863950490951538</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.999395132064819</v>
+        <v>0.963367223739624</v>
       </c>
       <c r="R4" t="n">
-        <v>0.998890280723572</v>
+        <v>0.99999737739563</v>
       </c>
       <c r="S4" t="n">
-        <v>0.99999874830246</v>
+        <v>0.9998602271080016</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9998626708984381</v>
+        <v>0.6467756628990173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.999816954135895</v>
+        <v>0.9999818801879884</v>
       </c>
       <c r="V4" t="n">
-        <v>0.997710824012756</v>
+        <v>0.9993427395820618</v>
       </c>
       <c r="W4" t="n">
-        <v>0.535378813743591</v>
+        <v>0.549737274646759</v>
       </c>
       <c r="X4" t="n">
-        <v>0.99938440322876</v>
+        <v>0.9996579885482788</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.999723613262176</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.999837040901184</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.99997878074646</v>
+        <v>0.9994804263114928</v>
       </c>
     </row>
     <row r="5">
@@ -832,82 +804,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9977124929428099</v>
+        <v>0.9981940388679504</v>
       </c>
       <c r="C5" t="n">
-        <v>0.995490193367004</v>
+        <v>0.2124051600694656</v>
       </c>
       <c r="D5" t="n">
-        <v>0.858969748020172</v>
+        <v>0.8601358532905579</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6189727187156679</v>
+        <v>0.5484927296638489</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999963343143463</v>
+        <v>0.9999834299087524</v>
       </c>
       <c r="G5" t="n">
-        <v>0.999901175498962</v>
+        <v>0.0854076892137527</v>
       </c>
       <c r="H5" t="n">
-        <v>0.638541698455811</v>
+        <v>0.9925329685211182</v>
       </c>
       <c r="I5" t="n">
-        <v>0.998989939689636</v>
+        <v>0.9981545209884644</v>
       </c>
       <c r="J5" t="n">
-        <v>0.999612152576446</v>
+        <v>0.9996243715286256</v>
       </c>
       <c r="K5" t="n">
-        <v>0.999991595745087</v>
+        <v>0.589979350566864</v>
       </c>
       <c r="L5" t="n">
-        <v>0.947714030742645</v>
+        <v>0.9992738962173462</v>
       </c>
       <c r="M5" t="n">
-        <v>0.553426265716553</v>
+        <v>0.9996998310089112</v>
       </c>
       <c r="N5" t="n">
-        <v>0.999819755554199</v>
+        <v>0.9998238086700439</v>
       </c>
       <c r="O5" t="n">
-        <v>0.999208867549896</v>
+        <v>0.9992846250534058</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9935733675956731</v>
+        <v>0.9990071058273317</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9935733675956731</v>
+        <v>0.9295933246612548</v>
       </c>
       <c r="R5" t="n">
-        <v>0.804716467857361</v>
+        <v>0.5502336025238037</v>
       </c>
       <c r="S5" t="n">
-        <v>0.540429949760437</v>
+        <v>0.999231457710266</v>
       </c>
       <c r="T5" t="n">
-        <v>0.998847484588623</v>
+        <v>0.6758244633674622</v>
       </c>
       <c r="U5" t="n">
-        <v>0.68425577878952</v>
+        <v>0.9979780912399292</v>
       </c>
       <c r="V5" t="n">
-        <v>0.999885737895966</v>
+        <v>0.9991397261619568</v>
       </c>
       <c r="W5" t="n">
-        <v>0.698790669441223</v>
+        <v>0.9999620914459229</v>
       </c>
       <c r="X5" t="n">
-        <v>0.999922871589661</v>
+        <v>0.8711647987365723</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.953568816184998</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.578168869018555</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.999599456787109</v>
+        <v>0.9987529516220092</v>
       </c>
     </row>
     <row r="6">
@@ -917,82 +883,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.247915357351303</v>
+        <v>0.273303747177124</v>
       </c>
       <c r="C6" t="n">
-        <v>0.998726963996887</v>
+        <v>0.9986380934715272</v>
       </c>
       <c r="D6" t="n">
-        <v>0.999886751174927</v>
+        <v>0.1593918204307556</v>
       </c>
       <c r="E6" t="n">
-        <v>0.99984860420227</v>
+        <v>0.9963295459747314</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0716542601585388</v>
+        <v>0.8935072422027588</v>
       </c>
       <c r="G6" t="n">
-        <v>0.999971747398376</v>
+        <v>0.9999779462814332</v>
       </c>
       <c r="H6" t="n">
-        <v>0.540449619293213</v>
+        <v>0.9997869729995728</v>
       </c>
       <c r="I6" t="n">
-        <v>0.999139070510864</v>
+        <v>0.9992233514785768</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9997906088829041</v>
+        <v>0.543521523475647</v>
       </c>
       <c r="K6" t="n">
-        <v>0.99987143278122</v>
+        <v>0.5350579023361206</v>
       </c>
       <c r="L6" t="n">
-        <v>0.539342641830444</v>
+        <v>0.8893672227859497</v>
       </c>
       <c r="M6" t="n">
-        <v>0.990832090377808</v>
+        <v>0.6030557155609131</v>
       </c>
       <c r="N6" t="n">
-        <v>0.999896705150604</v>
+        <v>0.9998621940612792</v>
       </c>
       <c r="O6" t="n">
-        <v>0.58684104681015</v>
+        <v>0.9992936849594116</v>
       </c>
       <c r="P6" t="n">
-        <v>0.998864948749542</v>
+        <v>0.8405684232711792</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.998864948749542</v>
+        <v>0.999971330165863</v>
       </c>
       <c r="R6" t="n">
-        <v>0.540595591068268</v>
+        <v>0.9998584985733032</v>
       </c>
       <c r="S6" t="n">
-        <v>0.922403037548065</v>
+        <v>0.9999773502349854</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9999929666519159</v>
+        <v>0.9999971389770508</v>
       </c>
       <c r="U6" t="n">
-        <v>0.999999761581421</v>
+        <v>0.9999434351921082</v>
       </c>
       <c r="V6" t="n">
-        <v>0.530451714992523</v>
+        <v>0.745587944984436</v>
       </c>
       <c r="W6" t="n">
-        <v>0.999496936798096</v>
+        <v>0.8624037504196167</v>
       </c>
       <c r="X6" t="n">
-        <v>0.861900866031647</v>
+        <v>0.9999314546585084</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.999914407730102</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.999356150627136</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.999988436698914</v>
+        <v>0.5496373176574707</v>
       </c>
     </row>
     <row r="7">
@@ -1002,82 +962,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999963462352753</v>
+        <v>0.9999262690544128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.998349666595459</v>
+        <v>0.998542547225952</v>
       </c>
       <c r="D7" t="n">
-        <v>0.557970702648163</v>
+        <v>0.994653046131134</v>
       </c>
       <c r="E7" t="n">
-        <v>0.554425537586212</v>
+        <v>0.5404810905456543</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999961256980896</v>
+        <v>0.9999600648880004</v>
       </c>
       <c r="G7" t="n">
-        <v>0.999858260154724</v>
+        <v>0.9999242424964904</v>
       </c>
       <c r="H7" t="n">
-        <v>0.671589136123657</v>
+        <v>0.9999074935913086</v>
       </c>
       <c r="I7" t="n">
-        <v>0.999433636665344</v>
+        <v>0.9317246079444884</v>
       </c>
       <c r="J7" t="n">
-        <v>0.549258947372437</v>
+        <v>0.5417998433113098</v>
       </c>
       <c r="K7" t="n">
-        <v>0.999851226806641</v>
+        <v>0.9988179206848145</v>
       </c>
       <c r="L7" t="n">
-        <v>0.999990582466126</v>
+        <v>0.9999902844429016</v>
       </c>
       <c r="M7" t="n">
-        <v>0.999922692775726</v>
+        <v>0.9999175667762756</v>
       </c>
       <c r="N7" t="n">
-        <v>0.999666154384613</v>
+        <v>0.9140154719352722</v>
       </c>
       <c r="O7" t="n">
-        <v>0.997092247009277</v>
+        <v>0.6144523620605469</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9875502586364751</v>
+        <v>0.5354668498039246</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9875502586364751</v>
+        <v>0.8612658977508545</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8604167103767399</v>
+        <v>0.9946483373641968</v>
       </c>
       <c r="S7" t="n">
-        <v>0.99608838558197</v>
+        <v>0.7542188763618469</v>
       </c>
       <c r="T7" t="n">
-        <v>0.55071622133255</v>
+        <v>0.5315109491348267</v>
       </c>
       <c r="U7" t="n">
-        <v>0.999884605407715</v>
+        <v>0.5358271598815918</v>
       </c>
       <c r="V7" t="n">
-        <v>0.999933063983917</v>
+        <v>0.9998009204864502</v>
       </c>
       <c r="W7" t="n">
-        <v>0.612927794456482</v>
+        <v>0.5667715668678284</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9998625516891479</v>
+        <v>0.9076195359230042</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5914042592048649</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.610775351524353</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.07262884080409999</v>
+        <v>0.171513944864273</v>
       </c>
     </row>
     <row r="8">
@@ -1087,82 +1041,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999997019767761</v>
+        <v>0.9999790191650392</v>
       </c>
       <c r="C8" t="n">
-        <v>0.576200306415558</v>
+        <v>0.9996045231819152</v>
       </c>
       <c r="D8" t="n">
-        <v>0.573546826839447</v>
+        <v>0.5469995737075806</v>
       </c>
       <c r="E8" t="n">
-        <v>0.998059988021851</v>
+        <v>0.9979935884475708</v>
       </c>
       <c r="F8" t="n">
-        <v>0.728038132190704</v>
+        <v>0.9984769821166992</v>
       </c>
       <c r="G8" t="n">
-        <v>0.999901354312897</v>
+        <v>0.9999767541885376</v>
       </c>
       <c r="H8" t="n">
-        <v>0.998121857643127</v>
+        <v>0.9985806941986084</v>
       </c>
       <c r="I8" t="n">
-        <v>0.549890041351318</v>
+        <v>0.9997378587722778</v>
       </c>
       <c r="J8" t="n">
-        <v>0.472233355045319</v>
+        <v>0.8626421093940735</v>
       </c>
       <c r="K8" t="n">
-        <v>0.983578026294708</v>
+        <v>0.9995566606521606</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5409089326858521</v>
+        <v>0.999692440032959</v>
       </c>
       <c r="M8" t="n">
-        <v>0.999959349632263</v>
+        <v>0.963362455368042</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9998877048492431</v>
+        <v>0.9998973608016968</v>
       </c>
       <c r="O8" t="n">
-        <v>0.536560237407684</v>
+        <v>0.5526415109634399</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5385229587554931</v>
+        <v>0.5577935576438904</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5385229587554931</v>
+        <v>0.9998153448104858</v>
       </c>
       <c r="R8" t="n">
-        <v>0.99982476234436</v>
+        <v>0.5979630351066589</v>
       </c>
       <c r="S8" t="n">
-        <v>0.999947667121887</v>
+        <v>0.9994364976882936</v>
       </c>
       <c r="T8" t="n">
-        <v>0.999692738056183</v>
+        <v>0.9998492002487184</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9997820854187009</v>
+        <v>0.5874648094177246</v>
       </c>
       <c r="V8" t="n">
-        <v>0.999990820884705</v>
+        <v>0.9942496418952942</v>
       </c>
       <c r="W8" t="n">
-        <v>0.999820232391357</v>
+        <v>0.999985694885254</v>
       </c>
       <c r="X8" t="n">
-        <v>0.999980628490448</v>
+        <v>0.998725414276123</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9991303682327271</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.996252179145813</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.999974012374878</v>
+        <v>0.99843430519104</v>
       </c>
     </row>
     <row r="9">
@@ -1172,82 +1120,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999905169010162</v>
+        <v>0.998850643634796</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999850630760193</v>
+        <v>0.999841809272766</v>
       </c>
       <c r="D9" t="n">
-        <v>0.99890673160553</v>
+        <v>0.5987779498100281</v>
       </c>
       <c r="E9" t="n">
-        <v>0.998644173145294</v>
+        <v>0.6890542507171631</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999578833580017</v>
+        <v>0.9997528791427612</v>
       </c>
       <c r="G9" t="n">
-        <v>0.999880313873291</v>
+        <v>0.1004849597811698</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9998432397842409</v>
+        <v>0.8709725141525269</v>
       </c>
       <c r="I9" t="n">
-        <v>0.998998641967773</v>
+        <v>0.9991881251335144</v>
       </c>
       <c r="J9" t="n">
-        <v>0.999996304512024</v>
+        <v>0.9999904036521912</v>
       </c>
       <c r="K9" t="n">
-        <v>0.999868035316467</v>
+        <v>0.978707194328308</v>
       </c>
       <c r="L9" t="n">
-        <v>0.992650508880615</v>
+        <v>0.5685303211212158</v>
       </c>
       <c r="M9" t="n">
-        <v>0.999677896499634</v>
+        <v>0.999722957611084</v>
       </c>
       <c r="N9" t="n">
-        <v>0.810826897621155</v>
+        <v>0.2870393097400665</v>
       </c>
       <c r="O9" t="n">
-        <v>0.999517858028412</v>
+        <v>0.5684100985527039</v>
       </c>
       <c r="P9" t="n">
-        <v>0.971082866191864</v>
+        <v>0.9978891015052797</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.971082866191864</v>
+        <v>0.3102128803730011</v>
       </c>
       <c r="R9" t="n">
-        <v>0.999696612358093</v>
+        <v>0.9964813590049744</v>
       </c>
       <c r="S9" t="n">
-        <v>0.998787879943848</v>
+        <v>0.9998387694358826</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5430788397789</v>
+        <v>0.5794019103050232</v>
       </c>
       <c r="U9" t="n">
-        <v>0.981774210929871</v>
+        <v>0.9994943141937256</v>
       </c>
       <c r="V9" t="n">
-        <v>0.973631024360657</v>
+        <v>0.7638397216796875</v>
       </c>
       <c r="W9" t="n">
-        <v>0.999497771263123</v>
+        <v>0.5327382683753967</v>
       </c>
       <c r="X9" t="n">
-        <v>0.999386548995972</v>
+        <v>0.1728138178586959</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.12653848528862</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.643799185752869</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.856287240982056</v>
+        <v>0.9965976476669312</v>
       </c>
     </row>
     <row r="10">
@@ -1257,82 +1199,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.573171973228455</v>
+        <v>0.9997401237487792</v>
       </c>
       <c r="C10" t="n">
-        <v>0.997941374778748</v>
+        <v>0.9926964640617372</v>
       </c>
       <c r="D10" t="n">
-        <v>0.99983161687851</v>
+        <v>0.9990439414978028</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999134421348572</v>
+        <v>0.5833451747894287</v>
       </c>
       <c r="F10" t="n">
-        <v>0.868354558944702</v>
+        <v>0.7918789386749268</v>
       </c>
       <c r="G10" t="n">
-        <v>0.971206188201904</v>
+        <v>0.5497373342514038</v>
       </c>
       <c r="H10" t="n">
-        <v>0.999624609947205</v>
+        <v>0.999447464942932</v>
       </c>
       <c r="I10" t="n">
-        <v>0.999382495880127</v>
+        <v>0.5713273882865906</v>
       </c>
       <c r="J10" t="n">
-        <v>0.999686360359192</v>
+        <v>0.999634563922882</v>
       </c>
       <c r="K10" t="n">
-        <v>0.382029592990875</v>
+        <v>0.9995583295822144</v>
       </c>
       <c r="L10" t="n">
-        <v>0.998953104019165</v>
+        <v>0.9987306594848632</v>
       </c>
       <c r="M10" t="n">
-        <v>0.999964833259582</v>
+        <v>0.99996018409729</v>
       </c>
       <c r="N10" t="n">
-        <v>0.553965926170349</v>
+        <v>0.5965192914009094</v>
       </c>
       <c r="O10" t="n">
-        <v>0.806789875030518</v>
+        <v>0.9983407258987428</v>
       </c>
       <c r="P10" t="n">
-        <v>0.869740307331085</v>
+        <v>0.9987504482269288</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.869740307331085</v>
+        <v>0.6067853569984436</v>
       </c>
       <c r="R10" t="n">
-        <v>0.791194081306458</v>
+        <v>0.8247900605201721</v>
       </c>
       <c r="S10" t="n">
-        <v>0.998864054679871</v>
+        <v>0.4827243685722351</v>
       </c>
       <c r="T10" t="n">
-        <v>0.525513112545013</v>
+        <v>0.9153313040733336</v>
       </c>
       <c r="U10" t="n">
-        <v>0.998759627342224</v>
+        <v>0.5657779574394226</v>
       </c>
       <c r="V10" t="n">
-        <v>0.774839401245117</v>
+        <v>0.6122602820396423</v>
       </c>
       <c r="W10" t="n">
-        <v>0.998308300971985</v>
+        <v>0.5324612855911255</v>
       </c>
       <c r="X10" t="n">
-        <v>0.999869406223297</v>
+        <v>0.9990341663360596</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.963002800941467</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.999718546867371</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.998380422592163</v>
+        <v>0.9995770454406738</v>
       </c>
     </row>
     <row r="11">
@@ -1342,82 +1278,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.998908817768097</v>
+        <v>0.9937078952789308</v>
       </c>
       <c r="C11" t="n">
-        <v>0.999918699264526</v>
+        <v>0.9998462200164796</v>
       </c>
       <c r="D11" t="n">
-        <v>0.628060460090637</v>
+        <v>0.9938408136367798</v>
       </c>
       <c r="E11" t="n">
-        <v>0.998187243938446</v>
+        <v>0.9994550943374634</v>
       </c>
       <c r="F11" t="n">
-        <v>0.998316645622253</v>
+        <v>0.9999865293502808</v>
       </c>
       <c r="G11" t="n">
-        <v>0.929461598396301</v>
+        <v>0.999553680419922</v>
       </c>
       <c r="H11" t="n">
-        <v>0.763489365577698</v>
+        <v>0.0751043185591697</v>
       </c>
       <c r="I11" t="n">
-        <v>0.999738812446594</v>
+        <v>0.9996664524078368</v>
       </c>
       <c r="J11" t="n">
-        <v>0.656134724617004</v>
+        <v>0.5364570021629333</v>
       </c>
       <c r="K11" t="n">
-        <v>0.543652951717377</v>
+        <v>0.999292254447937</v>
       </c>
       <c r="L11" t="n">
-        <v>0.99891722202301</v>
+        <v>0.5558229088783264</v>
       </c>
       <c r="M11" t="n">
-        <v>0.999112248420715</v>
+        <v>0.7690556049346924</v>
       </c>
       <c r="N11" t="n">
-        <v>0.556786417961121</v>
+        <v>0.9996131062507628</v>
       </c>
       <c r="O11" t="n">
-        <v>0.99905788898468</v>
+        <v>0.9990644454956056</v>
       </c>
       <c r="P11" t="n">
-        <v>0.631683230400085</v>
+        <v>0.5446519255638123</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.631683230400085</v>
+        <v>0.998775839805603</v>
       </c>
       <c r="R11" t="n">
-        <v>0.582728326320648</v>
+        <v>0.9986491203308104</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9997406005859381</v>
+        <v>0.8850717544555664</v>
       </c>
       <c r="T11" t="n">
-        <v>0.999554932117462</v>
+        <v>0.9991866946220398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.999103307723999</v>
+        <v>0.999819040298462</v>
       </c>
       <c r="V11" t="n">
-        <v>0.99832272529602</v>
+        <v>0.6888258457183838</v>
       </c>
       <c r="W11" t="n">
-        <v>0.40790843963623</v>
+        <v>0.9967944622039796</v>
       </c>
       <c r="X11" t="n">
-        <v>0.999014973640442</v>
+        <v>0.2087172120809555</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.999844193458557</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.999587297439575</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.538216829299927</v>
+        <v>0.8680896759033203</v>
       </c>
     </row>
     <row r="12">
@@ -1427,80 +1357,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.558912336826324</v>
+        <v>0.9998643398284912</v>
       </c>
       <c r="C12" t="n">
-        <v>0.999967455863953</v>
+        <v>0.9999475479125975</v>
       </c>
       <c r="D12" t="n">
-        <v>0.999611139297485</v>
+        <v>0.5416423678398132</v>
       </c>
       <c r="E12" t="n">
-        <v>0.998726844787598</v>
+        <v>0.5299482345581055</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999859690666199</v>
+        <v>0.9998493194580078</v>
       </c>
       <c r="G12" t="n">
-        <v>0.999888896942139</v>
+        <v>0.9998884201049804</v>
       </c>
       <c r="H12" t="n">
-        <v>0.999822676181793</v>
+        <v>0.5412986278533936</v>
       </c>
       <c r="I12" t="n">
-        <v>0.15210734307766</v>
+        <v>0.880856990814209</v>
       </c>
       <c r="J12" t="n">
-        <v>0.999991297721863</v>
+        <v>0.999990463256836</v>
       </c>
       <c r="K12" t="n">
-        <v>0.567548513412476</v>
+        <v>0.9999415278434752</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9999321103096011</v>
+        <v>0.6084508299827576</v>
       </c>
       <c r="M12" t="n">
-        <v>0.999953746795654</v>
+        <v>0.9999530911445618</v>
       </c>
       <c r="N12" t="n">
-        <v>0.999983906745911</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
+        <v>0.9999954700469972</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.9999945163726808</v>
+      </c>
       <c r="P12" t="n">
-        <v>0.999333620071411</v>
+        <v>0.6987937092781067</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.99998527765274</v>
+        <v>0.7025212645530701</v>
       </c>
       <c r="R12" t="n">
-        <v>0.610086798667908</v>
+        <v>0.5389128923416138</v>
       </c>
       <c r="S12" t="n">
-        <v>0.547997534275055</v>
+        <v>0.9999914765357972</v>
       </c>
       <c r="T12" t="n">
-        <v>0.999985814094544</v>
+        <v>0.9792180061340332</v>
       </c>
       <c r="U12" t="n">
-        <v>0.443025141954422</v>
+        <v>0.999531865119934</v>
       </c>
       <c r="V12" t="n">
-        <v>0.999473333358765</v>
+        <v>0.9997583627700806</v>
       </c>
       <c r="W12" t="n">
-        <v>0.999755501747131</v>
+        <v>0.9999986886978148</v>
       </c>
       <c r="X12" t="n">
-        <v>0.999999225139618</v>
+        <v>0.9346712231636048</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.99999612569809</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.548747539520264</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.99999350309372</v>
+        <v>0.9988608360290528</v>
       </c>
     </row>
     <row r="13">
@@ -1510,82 +1436,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999930262565609</v>
+        <v>0.5398090481758118</v>
       </c>
       <c r="C13" t="n">
-        <v>0.998810648918152</v>
+        <v>0.9990444183349608</v>
       </c>
       <c r="D13" t="n">
-        <v>0.998548448085785</v>
+        <v>0.9180890321731568</v>
       </c>
       <c r="E13" t="n">
-        <v>0.554445445537567</v>
+        <v>0.999796748161316</v>
       </c>
       <c r="F13" t="n">
-        <v>0.916059970855713</v>
+        <v>0.5330799221992493</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9307126402854921</v>
+        <v>0.9988250732421876</v>
       </c>
       <c r="H13" t="n">
-        <v>0.997588872909546</v>
+        <v>0.8422470092773438</v>
       </c>
       <c r="I13" t="n">
-        <v>0.107892379164696</v>
+        <v>0.9991844892501832</v>
       </c>
       <c r="J13" t="n">
-        <v>0.540718674659729</v>
+        <v>0.9999974370002748</v>
       </c>
       <c r="K13" t="n">
-        <v>0.884332716464996</v>
+        <v>0.998792290687561</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9980344772338871</v>
+        <v>0.924258828163147</v>
       </c>
       <c r="M13" t="n">
-        <v>0.538078665733337</v>
+        <v>0.9992579221725464</v>
       </c>
       <c r="N13" t="n">
-        <v>0.534637331962585</v>
+        <v>0.9997528195381165</v>
       </c>
       <c r="O13" t="n">
-        <v>0.999349594116211</v>
+        <v>0.988487720489502</v>
       </c>
       <c r="P13" t="n">
-        <v>0.999980688095093</v>
+        <v>0.9999004602432252</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.999980688095093</v>
+        <v>0.9980258345603944</v>
       </c>
       <c r="R13" t="n">
-        <v>0.703961908817291</v>
+        <v>0.7233545184135437</v>
       </c>
       <c r="S13" t="n">
-        <v>0.982133209705353</v>
+        <v>0.9999450445175172</v>
       </c>
       <c r="T13" t="n">
-        <v>0.999946653842926</v>
+        <v>0.0987384915351867</v>
       </c>
       <c r="U13" t="n">
-        <v>0.999469935894012</v>
+        <v>0.9895508885383606</v>
       </c>
       <c r="V13" t="n">
-        <v>0.960674047470093</v>
+        <v>0.9999788999557496</v>
       </c>
       <c r="W13" t="n">
-        <v>0.99998950958252</v>
+        <v>0.9999855756759644</v>
       </c>
       <c r="X13" t="n">
-        <v>0.776061296463013</v>
+        <v>0.9998737573623656</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.544325590133667</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.999165892601013</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.225893974304199</v>
+        <v>0.9994621276855468</v>
       </c>
     </row>
     <row r="14">
@@ -1595,82 +1515,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.591744899749756</v>
+        <v>0.999915599822998</v>
       </c>
       <c r="C14" t="n">
-        <v>0.53552919626236</v>
+        <v>0.533912718296051</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9969385862350461</v>
+        <v>0.6127634048461914</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9972133040428161</v>
+        <v>0.997359037399292</v>
       </c>
       <c r="F14" t="n">
-        <v>0.999966621398926</v>
+        <v>0.999929904937744</v>
       </c>
       <c r="G14" t="n">
-        <v>0.999939322471619</v>
+        <v>0.9999318718910216</v>
       </c>
       <c r="H14" t="n">
-        <v>0.590739548206329</v>
+        <v>0.9205055832862854</v>
       </c>
       <c r="I14" t="n">
-        <v>0.549035131931305</v>
+        <v>0.9996270537376404</v>
       </c>
       <c r="J14" t="n">
-        <v>0.636801719665527</v>
+        <v>0.5311390161514282</v>
       </c>
       <c r="K14" t="n">
-        <v>0.553291022777557</v>
+        <v>0.9989526271820068</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9994299411773681</v>
+        <v>0.5636354088783264</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9929684400558469</v>
+        <v>0.721554160118103</v>
       </c>
       <c r="N14" t="n">
-        <v>0.999129056930542</v>
+        <v>0.1139232367277145</v>
       </c>
       <c r="O14" t="n">
-        <v>0.619641542434692</v>
+        <v>0.999955713748932</v>
       </c>
       <c r="P14" t="n">
-        <v>0.999974370002747</v>
+        <v>0.9999679327011108</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.999974370002747</v>
+        <v>0.5722955465316772</v>
       </c>
       <c r="R14" t="n">
-        <v>0.728669464588165</v>
+        <v>0.6908848285675049</v>
       </c>
       <c r="S14" t="n">
-        <v>0.53501683473587</v>
+        <v>0.9999929666519164</v>
       </c>
       <c r="T14" t="n">
-        <v>0.999994218349457</v>
+        <v>0.9999763369560242</v>
       </c>
       <c r="U14" t="n">
-        <v>0.998981893062592</v>
+        <v>0.9365613460540771</v>
       </c>
       <c r="V14" t="n">
-        <v>0.78546941280365</v>
+        <v>0.9999997615814208</v>
       </c>
       <c r="W14" t="n">
-        <v>0.999999761581421</v>
+        <v>0.9999347329139709</v>
       </c>
       <c r="X14" t="n">
-        <v>0.997558295726776</v>
+        <v>0.9998958110809326</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.999905228614807</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.999758362770081</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.0749602168798446</v>
+        <v>0.9998648166656494</v>
       </c>
     </row>
     <row r="15">
@@ -1680,82 +1594,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.743672430515289</v>
+        <v>0.6021381616592407</v>
       </c>
       <c r="C15" t="n">
-        <v>0.99869954586029</v>
+        <v>0.5146049857139587</v>
       </c>
       <c r="D15" t="n">
-        <v>0.999502837657928</v>
+        <v>0.5525544285774231</v>
       </c>
       <c r="E15" t="n">
-        <v>0.99705183506012</v>
+        <v>0.9993603229522704</v>
       </c>
       <c r="F15" t="n">
-        <v>0.999598860740662</v>
+        <v>0.9817182421684264</v>
       </c>
       <c r="G15" t="n">
-        <v>0.951646327972412</v>
+        <v>0.9998710155487061</v>
       </c>
       <c r="H15" t="n">
-        <v>0.996001780033112</v>
+        <v>0.9999823570251464</v>
       </c>
       <c r="I15" t="n">
-        <v>0.694022417068481</v>
+        <v>0.5476088523864746</v>
       </c>
       <c r="J15" t="n">
-        <v>0.999892950057983</v>
+        <v>0.9998806715011596</v>
       </c>
       <c r="K15" t="n">
-        <v>0.999997496604919</v>
+        <v>0.6611153483390808</v>
       </c>
       <c r="L15" t="n">
-        <v>0.566555559635162</v>
+        <v>0.5278699398040771</v>
       </c>
       <c r="M15" t="n">
-        <v>0.999909698963165</v>
+        <v>0.9999895095825196</v>
       </c>
       <c r="N15" t="n">
-        <v>0.99992561340332</v>
+        <v>0.9999281764030457</v>
       </c>
       <c r="O15" t="n">
-        <v>0.677731692790985</v>
+        <v>0.6902202963829041</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5337594151496891</v>
+        <v>0.9999842047691344</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5337594151496891</v>
+        <v>0.56346595287323</v>
       </c>
       <c r="R15" t="n">
-        <v>0.998849630355835</v>
+        <v>0.6300084590911865</v>
       </c>
       <c r="S15" t="n">
-        <v>0.614136576652527</v>
+        <v>0.9999423623085022</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9999876022338871</v>
+        <v>0.5904086232185364</v>
       </c>
       <c r="U15" t="n">
-        <v>0.439305871725082</v>
+        <v>0.6972724795341492</v>
       </c>
       <c r="V15" t="n">
-        <v>0.557467639446259</v>
+        <v>0.5424617528915405</v>
       </c>
       <c r="W15" t="n">
-        <v>0.999949336051941</v>
+        <v>0.7012781500816345</v>
       </c>
       <c r="X15" t="n">
-        <v>0.999932289123535</v>
+        <v>0.7924495935440063</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.575561106204987</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.999878764152527</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.958255052566528</v>
+        <v>0.9998831748962402</v>
       </c>
     </row>
     <row r="16">
@@ -1765,82 +1673,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.532615065574646</v>
+        <v>0.9981569647789</v>
       </c>
       <c r="C16" t="n">
-        <v>0.99979954957962</v>
+        <v>0.999671757221222</v>
       </c>
       <c r="D16" t="n">
-        <v>0.999723196029663</v>
+        <v>0.5680564641952515</v>
       </c>
       <c r="E16" t="n">
-        <v>0.997608959674835</v>
+        <v>0.545767068862915</v>
       </c>
       <c r="F16" t="n">
-        <v>0.535864770412445</v>
+        <v>0.534496009349823</v>
       </c>
       <c r="G16" t="n">
-        <v>0.526379227638245</v>
+        <v>0.9999883770942688</v>
       </c>
       <c r="H16" t="n">
-        <v>0.999725222587585</v>
+        <v>0.9997363686561584</v>
       </c>
       <c r="I16" t="n">
-        <v>0.997872471809387</v>
+        <v>0.1586239486932754</v>
       </c>
       <c r="J16" t="n">
-        <v>0.999852418899536</v>
+        <v>0.999849796295166</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9998793601989751</v>
+        <v>0.5474842190742493</v>
       </c>
       <c r="L16" t="n">
-        <v>0.95294201374054</v>
+        <v>0.5312433242797852</v>
       </c>
       <c r="M16" t="n">
-        <v>0.999822854995728</v>
+        <v>0.9997899532318116</v>
       </c>
       <c r="N16" t="n">
-        <v>0.999156713485718</v>
+        <v>0.999294102191925</v>
       </c>
       <c r="O16" t="n">
-        <v>0.999996066093445</v>
+        <v>0.999897837638855</v>
       </c>
       <c r="P16" t="n">
-        <v>0.971385836601257</v>
+        <v>0.7686502933502197</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.971385836601257</v>
+        <v>0.6978384256362915</v>
       </c>
       <c r="R16" t="n">
-        <v>0.501819252967834</v>
+        <v>0.5499511361122131</v>
       </c>
       <c r="S16" t="n">
-        <v>0.541067719459534</v>
+        <v>0.9997860789299012</v>
       </c>
       <c r="T16" t="n">
-        <v>0.999871492385864</v>
+        <v>0.3719755411148071</v>
       </c>
       <c r="U16" t="n">
-        <v>0.711049556732178</v>
+        <v>0.9997926950454712</v>
       </c>
       <c r="V16" t="n">
-        <v>0.541446208953857</v>
+        <v>0.9977751970291138</v>
       </c>
       <c r="W16" t="n">
-        <v>0.895115852355957</v>
+        <v>0.1216896548867225</v>
       </c>
       <c r="X16" t="n">
-        <v>0.999524831771851</v>
+        <v>0.9997047185897828</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.571201026439667</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.717528700828552</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.56303209066391</v>
+        <v>0.9966057538986206</v>
       </c>
     </row>
     <row r="17">
@@ -1850,82 +1752,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.999989151954651</v>
+        <v>0.5574682354927063</v>
       </c>
       <c r="C17" t="n">
-        <v>0.915411412715912</v>
+        <v>0.9553989171981812</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7062807679176329</v>
+        <v>0.7548807859420776</v>
       </c>
       <c r="E17" t="n">
-        <v>0.631896376609802</v>
+        <v>0.9910703897476196</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998959302902219</v>
+        <v>0.9998933076858521</v>
       </c>
       <c r="G17" t="n">
-        <v>0.999682903289795</v>
+        <v>0.999689280986786</v>
       </c>
       <c r="H17" t="n">
-        <v>0.763048112392426</v>
+        <v>0.596892237663269</v>
       </c>
       <c r="I17" t="n">
-        <v>0.99942946434021</v>
+        <v>0.9993886947631836</v>
       </c>
       <c r="J17" t="n">
-        <v>0.998472213745117</v>
+        <v>0.653958797454834</v>
       </c>
       <c r="K17" t="n">
-        <v>0.999975144863129</v>
+        <v>0.9999918937683104</v>
       </c>
       <c r="L17" t="n">
-        <v>0.990705966949463</v>
+        <v>0.9999960064888</v>
       </c>
       <c r="M17" t="n">
-        <v>0.697082102298737</v>
+        <v>0.5459614992141724</v>
       </c>
       <c r="N17" t="n">
-        <v>0.982708513736725</v>
+        <v>0.9713857173919678</v>
       </c>
       <c r="O17" t="n">
-        <v>0.999869108200073</v>
+        <v>0.5451260805130005</v>
       </c>
       <c r="P17" t="n">
-        <v>0.527510285377502</v>
+        <v>0.9999713897705078</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.527510285377502</v>
+        <v>0.993891716003418</v>
       </c>
       <c r="R17" t="n">
-        <v>0.96781325340271</v>
+        <v>0.9999988079071044</v>
       </c>
       <c r="S17" t="n">
-        <v>0.543766558170319</v>
+        <v>0.9866442680358888</v>
       </c>
       <c r="T17" t="n">
-        <v>0.989318430423737</v>
+        <v>0.9998944997787476</v>
       </c>
       <c r="U17" t="n">
-        <v>0.999986410140991</v>
+        <v>0.981465220451355</v>
       </c>
       <c r="V17" t="n">
-        <v>0.878797292709351</v>
+        <v>0.5379641056060791</v>
       </c>
       <c r="W17" t="n">
-        <v>0.998888671398163</v>
+        <v>0.9991748332977296</v>
       </c>
       <c r="X17" t="n">
-        <v>0.999640226364136</v>
+        <v>0.6962882280349731</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.68023294210434</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.999470114707947</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.690712928771973</v>
+        <v>0.9897481203079224</v>
       </c>
     </row>
     <row r="18">
@@ -1935,82 +1831,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.999334275722504</v>
+        <v>0.999603807926178</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239715725183487</v>
+        <v>0.5345684885978699</v>
       </c>
       <c r="D18" t="n">
-        <v>0.962641894817352</v>
+        <v>0.9868651628494264</v>
       </c>
       <c r="E18" t="n">
-        <v>0.828728556632996</v>
+        <v>0.64457106590271</v>
       </c>
       <c r="F18" t="n">
-        <v>0.91408908367157</v>
+        <v>0.9993377923965454</v>
       </c>
       <c r="G18" t="n">
-        <v>0.351915597915649</v>
+        <v>0.6740236878395081</v>
       </c>
       <c r="H18" t="n">
-        <v>0.978027105331421</v>
+        <v>0.9709007740020752</v>
       </c>
       <c r="I18" t="n">
-        <v>0.718283534049988</v>
+        <v>0.6007469892501831</v>
       </c>
       <c r="J18" t="n">
-        <v>0.999819338321686</v>
+        <v>0.999830961227417</v>
       </c>
       <c r="K18" t="n">
-        <v>0.539870321750641</v>
+        <v>0.9988150596618652</v>
       </c>
       <c r="L18" t="n">
-        <v>0.714673638343811</v>
+        <v>0.2970306277275085</v>
       </c>
       <c r="M18" t="n">
-        <v>0.671758413314819</v>
+        <v>0.6865782141685486</v>
       </c>
       <c r="N18" t="n">
-        <v>0.99997866153717</v>
+        <v>0.5458300113677979</v>
       </c>
       <c r="O18" t="n">
-        <v>0.998979330062866</v>
+        <v>0.9995678663253784</v>
       </c>
       <c r="P18" t="n">
-        <v>0.611748695373535</v>
+        <v>0.584942102432251</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.611748695373535</v>
+        <v>0.7191838026046753</v>
       </c>
       <c r="R18" t="n">
-        <v>0.822876036167145</v>
+        <v>0.825656533241272</v>
       </c>
       <c r="S18" t="n">
-        <v>0.47190722823143</v>
+        <v>0.9182956218719482</v>
       </c>
       <c r="T18" t="n">
-        <v>0.605978667736053</v>
+        <v>0.999248743057251</v>
       </c>
       <c r="U18" t="n">
-        <v>0.545251905918121</v>
+        <v>0.999398708343506</v>
       </c>
       <c r="V18" t="n">
-        <v>0.995871424674988</v>
+        <v>0.554477334022522</v>
       </c>
       <c r="W18" t="n">
-        <v>0.999932527542114</v>
+        <v>0.9964980483055116</v>
       </c>
       <c r="X18" t="n">
-        <v>0.957082271575928</v>
+        <v>0.99985933303833</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.999943733215332</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.242316678166389</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.529119193553925</v>
+        <v>0.6050484776496887</v>
       </c>
     </row>
     <row r="19">
@@ -2020,82 +1910,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.597138226032257</v>
+        <v>0.0868748649954795</v>
       </c>
       <c r="C19" t="n">
-        <v>0.544384241104126</v>
+        <v>0.5546610951423645</v>
       </c>
       <c r="D19" t="n">
-        <v>0.945468783378601</v>
+        <v>0.5740130543708801</v>
       </c>
       <c r="E19" t="n">
-        <v>0.996930480003357</v>
+        <v>0.6066584587097168</v>
       </c>
       <c r="F19" t="n">
-        <v>0.939216375350952</v>
+        <v>0.9999969005584716</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5584952235221859</v>
+        <v>0.1856490671634674</v>
       </c>
       <c r="H19" t="n">
-        <v>0.99949836730957</v>
+        <v>0.999367892742157</v>
       </c>
       <c r="I19" t="n">
-        <v>0.998715400695801</v>
+        <v>0.5655030608177185</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9999652504920959</v>
+        <v>0.9997586011886596</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9960619211196901</v>
+        <v>0.9989006519317628</v>
       </c>
       <c r="L19" t="n">
-        <v>0.991127133369446</v>
+        <v>0.4748686850070953</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9999596476554869</v>
+        <v>0.54913330078125</v>
       </c>
       <c r="N19" t="n">
-        <v>0.999871253967285</v>
+        <v>0.9999043941497804</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9995825290679931</v>
+        <v>0.9873273372650146</v>
       </c>
       <c r="P19" t="n">
-        <v>0.57815819978714</v>
+        <v>0.6798691749572754</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.57815819978714</v>
+        <v>0.9990683794021606</v>
       </c>
       <c r="R19" t="n">
-        <v>0.99918669462204</v>
+        <v>0.7147537469863892</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9999071359634401</v>
+        <v>0.9953081011772156</v>
       </c>
       <c r="T19" t="n">
-        <v>0.552137851715088</v>
+        <v>0.5356446504592896</v>
       </c>
       <c r="U19" t="n">
-        <v>0.542629897594452</v>
+        <v>0.9999178051948548</v>
       </c>
       <c r="V19" t="n">
-        <v>0.999928712844849</v>
+        <v>0.9999656081199646</v>
       </c>
       <c r="W19" t="n">
-        <v>0.999953985214233</v>
+        <v>0.5353816747665405</v>
       </c>
       <c r="X19" t="n">
-        <v>0.999914288520813</v>
+        <v>0.5599365234375</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.99995619058609</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.962236762046814</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.9997377395629879</v>
+        <v>0.999849259853363</v>
       </c>
     </row>
     <row r="20">
@@ -2105,82 +1989,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.858207702636719</v>
+        <v>0.9988570213317872</v>
       </c>
       <c r="C20" t="n">
-        <v>0.312205493450165</v>
+        <v>0.7165859341621399</v>
       </c>
       <c r="D20" t="n">
-        <v>0.968934237957001</v>
+        <v>0.6537195444107056</v>
       </c>
       <c r="E20" t="n">
-        <v>0.422962456941605</v>
+        <v>0.3633762300014496</v>
       </c>
       <c r="F20" t="n">
-        <v>0.100490421056747</v>
+        <v>0.6432370543479919</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7450491189956669</v>
+        <v>0.996257185935974</v>
       </c>
       <c r="H20" t="n">
-        <v>0.212467610836029</v>
+        <v>0.8122975826263428</v>
       </c>
       <c r="I20" t="n">
-        <v>0.99930065870285</v>
+        <v>0.9996410608291626</v>
       </c>
       <c r="J20" t="n">
-        <v>0.197527676820755</v>
+        <v>0.9993658065795898</v>
       </c>
       <c r="K20" t="n">
-        <v>0.547135829925537</v>
+        <v>0.8914759159088135</v>
       </c>
       <c r="L20" t="n">
-        <v>0.537774801254272</v>
+        <v>0.999637246131897</v>
       </c>
       <c r="M20" t="n">
-        <v>0.945642709732056</v>
+        <v>0.5359397530555725</v>
       </c>
       <c r="N20" t="n">
-        <v>0.999930143356323</v>
+        <v>0.5509881377220154</v>
       </c>
       <c r="O20" t="n">
-        <v>0.531524837017059</v>
+        <v>0.9998664855957032</v>
       </c>
       <c r="P20" t="n">
-        <v>0.98744386434555</v>
+        <v>0.5789049863815308</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.98744386434555</v>
+        <v>0.6219642758369446</v>
       </c>
       <c r="R20" t="n">
-        <v>0.852601170539856</v>
+        <v>0.9704052209854126</v>
       </c>
       <c r="S20" t="n">
-        <v>0.139775276184082</v>
+        <v>0.9999233484268188</v>
       </c>
       <c r="T20" t="n">
-        <v>0.666744828224182</v>
+        <v>0.9997581243515016</v>
       </c>
       <c r="U20" t="n">
-        <v>0.999822020530701</v>
+        <v>0.9992641806602478</v>
       </c>
       <c r="V20" t="n">
-        <v>0.936855316162109</v>
+        <v>0.9995385408401488</v>
       </c>
       <c r="W20" t="n">
-        <v>0.999649882316589</v>
+        <v>0.1600915491580963</v>
       </c>
       <c r="X20" t="n">
-        <v>0.99857485294342</v>
+        <v>0.9998667240142822</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.105054914951324</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.586917638778687</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.65274053812027</v>
+        <v>0.9998574256896972</v>
       </c>
     </row>
     <row r="21">
@@ -2190,82 +2068,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.99999988079071</v>
+        <v>0.9999972581863404</v>
       </c>
       <c r="C21" t="n">
-        <v>0.544160544872284</v>
+        <v>0.8918930888175964</v>
       </c>
       <c r="D21" t="n">
-        <v>0.94994592666626</v>
+        <v>0.9996747374534608</v>
       </c>
       <c r="E21" t="n">
-        <v>0.99967098236084</v>
+        <v>0.1012804433703422</v>
       </c>
       <c r="F21" t="n">
-        <v>0.967198967933655</v>
+        <v>0.9999929666519164</v>
       </c>
       <c r="G21" t="n">
-        <v>0.999991834163666</v>
+        <v>0.5355706810951233</v>
       </c>
       <c r="H21" t="n">
-        <v>0.999840259552002</v>
+        <v>0.998282790184021</v>
       </c>
       <c r="I21" t="n">
-        <v>0.999794840812683</v>
+        <v>0.9997986555099488</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5711655616760249</v>
+        <v>0.998672902584076</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9999958872795101</v>
+        <v>0.9999972581863404</v>
       </c>
       <c r="L21" t="n">
-        <v>0.999997615814209</v>
+        <v>0.5290928483009338</v>
       </c>
       <c r="M21" t="n">
-        <v>0.12778702378273</v>
+        <v>0.999980092048645</v>
       </c>
       <c r="N21" t="n">
-        <v>0.999323010444641</v>
+        <v>0.5389883518218994</v>
       </c>
       <c r="O21" t="n">
-        <v>0.489084959030151</v>
+        <v>0.999972939491272</v>
       </c>
       <c r="P21" t="n">
-        <v>0.638041138648987</v>
+        <v>0.7071431875228882</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.638041138648987</v>
+        <v>0.9999133348464966</v>
       </c>
       <c r="R21" t="n">
-        <v>0.544281661510468</v>
+        <v>0.5397063493728638</v>
       </c>
       <c r="S21" t="n">
-        <v>0.999998807907104</v>
+        <v>0.9998213052749634</v>
       </c>
       <c r="T21" t="n">
-        <v>0.99999988079071</v>
+        <v>0.5376071929931641</v>
       </c>
       <c r="U21" t="n">
-        <v>0.540300250053406</v>
+        <v>0.5311962366104126</v>
       </c>
       <c r="V21" t="n">
-        <v>0.999935269355774</v>
+        <v>0.9999918937683104</v>
       </c>
       <c r="W21" t="n">
-        <v>0.999946177005768</v>
+        <v>0.9364649057388306</v>
       </c>
       <c r="X21" t="n">
-        <v>0.973080515861511</v>
+        <v>0.4456746578216553</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.999995470046997</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.372320502996445</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.9999735355377199</v>
+        <v>0.5403915643692017</v>
       </c>
     </row>
     <row r="22">
@@ -2275,82 +2147,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.998868584632874</v>
+        <v>0.9989817142486572</v>
       </c>
       <c r="C22" t="n">
-        <v>0.710308372974396</v>
+        <v>0.9999324083328248</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999341607093811</v>
+        <v>0.9845908880233764</v>
       </c>
       <c r="E22" t="n">
-        <v>0.998312592506409</v>
+        <v>0.9970741271972656</v>
       </c>
       <c r="F22" t="n">
-        <v>0.528672099113464</v>
+        <v>0.5406632423400879</v>
       </c>
       <c r="G22" t="n">
-        <v>0.998713374137878</v>
+        <v>0.5092474222183228</v>
       </c>
       <c r="H22" t="n">
-        <v>0.551627457141876</v>
+        <v>0.6254602670669556</v>
       </c>
       <c r="I22" t="n">
-        <v>0.924475312232971</v>
+        <v>0.9995614290237428</v>
       </c>
       <c r="J22" t="n">
-        <v>0.566465497016907</v>
+        <v>0.9995086193084716</v>
       </c>
       <c r="K22" t="n">
-        <v>0.890868425369263</v>
+        <v>0.6973457336425781</v>
       </c>
       <c r="L22" t="n">
-        <v>0.999299168586731</v>
+        <v>0.9995117783546448</v>
       </c>
       <c r="M22" t="n">
-        <v>0.999462604522705</v>
+        <v>0.9997880458831788</v>
       </c>
       <c r="N22" t="n">
-        <v>0.999751031398773</v>
+        <v>0.9998759031295776</v>
       </c>
       <c r="O22" t="n">
-        <v>0.999987244606018</v>
+        <v>0.9998698234558104</v>
       </c>
       <c r="P22" t="n">
-        <v>0.960925221443176</v>
+        <v>0.9922937154769896</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.960925221443176</v>
+        <v>0.9972398281097412</v>
       </c>
       <c r="R22" t="n">
-        <v>0.997423648834228</v>
+        <v>0.7359525561332703</v>
       </c>
       <c r="S22" t="n">
-        <v>0.923348784446716</v>
+        <v>0.9992992877960204</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0986316800117492</v>
+        <v>0.5301271080970764</v>
       </c>
       <c r="U22" t="n">
-        <v>0.999473810195923</v>
+        <v>0.9997682571411132</v>
       </c>
       <c r="V22" t="n">
-        <v>0.999718010425568</v>
+        <v>0.9999605417251588</v>
       </c>
       <c r="W22" t="n">
-        <v>0.999959111213684</v>
+        <v>0.9996909499168396</v>
       </c>
       <c r="X22" t="n">
-        <v>0.9996879100799561</v>
+        <v>0.999648094177246</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.585380792617798</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.793304800987244</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.58579558134079</v>
+        <v>0.2073490917682647</v>
       </c>
     </row>
     <row r="23">
@@ -2360,82 +2226,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.999783992767334</v>
+        <v>0.9997456073760986</v>
       </c>
       <c r="C23" t="n">
-        <v>0.999868631362915</v>
+        <v>0.9999121427536012</v>
       </c>
       <c r="D23" t="n">
-        <v>0.358596205711365</v>
+        <v>0.614862859249115</v>
       </c>
       <c r="E23" t="n">
-        <v>0.996440172195435</v>
+        <v>0.9968464374542236</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999228000640869</v>
+        <v>0.868975043296814</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9994158744812009</v>
+        <v>0.9993805289268494</v>
       </c>
       <c r="H23" t="n">
-        <v>0.861572802066803</v>
+        <v>0.4262877702713012</v>
       </c>
       <c r="I23" t="n">
-        <v>0.99861478805542</v>
+        <v>0.9985838532447816</v>
       </c>
       <c r="J23" t="n">
-        <v>0.999826908111572</v>
+        <v>0.5870978236198425</v>
       </c>
       <c r="K23" t="n">
-        <v>0.999720394611359</v>
+        <v>0.8334475755691528</v>
       </c>
       <c r="L23" t="n">
-        <v>0.999578595161438</v>
+        <v>0.9998059272766112</v>
       </c>
       <c r="M23" t="n">
-        <v>0.99987918138504</v>
+        <v>0.8460893034934998</v>
       </c>
       <c r="N23" t="n">
-        <v>0.613805532455444</v>
+        <v>0.9954875111579896</v>
       </c>
       <c r="O23" t="n">
-        <v>0.790549457073212</v>
+        <v>0.9967423677444458</v>
       </c>
       <c r="P23" t="n">
-        <v>0.998817980289459</v>
+        <v>0.991848349571228</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.998817980289459</v>
+        <v>0.9971420168876648</v>
       </c>
       <c r="R23" t="n">
-        <v>0.788813054561615</v>
+        <v>0.5196192860603333</v>
       </c>
       <c r="S23" t="n">
-        <v>0.999987840652466</v>
+        <v>0.999898076057434</v>
       </c>
       <c r="T23" t="n">
-        <v>0.547200202941895</v>
+        <v>0.9998786449432372</v>
       </c>
       <c r="U23" t="n">
-        <v>0.999863505363464</v>
+        <v>0.5410640239715576</v>
       </c>
       <c r="V23" t="n">
-        <v>0.999989807605743</v>
+        <v>0.7886178493499756</v>
       </c>
       <c r="W23" t="n">
-        <v>0.553542733192444</v>
+        <v>0.5497065186500549</v>
       </c>
       <c r="X23" t="n">
-        <v>0.999936699867248</v>
+        <v>0.5566584467887878</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.129180490970611</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.679284572601318</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.999937772750854</v>
+        <v>0.5442481637001038</v>
       </c>
     </row>
     <row r="24">
@@ -2445,82 +2305,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.999811768531799</v>
+        <v>0.9997775554656982</v>
       </c>
       <c r="C24" t="n">
-        <v>0.564979493618011</v>
+        <v>0.9996708631515504</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8877465724945069</v>
+        <v>0.8738628625869751</v>
       </c>
       <c r="E24" t="n">
-        <v>0.828718185424805</v>
+        <v>0.985998511314392</v>
       </c>
       <c r="F24" t="n">
-        <v>0.658829748630524</v>
+        <v>0.9616479873657228</v>
       </c>
       <c r="G24" t="n">
-        <v>0.568331837654114</v>
+        <v>0.999117374420166</v>
       </c>
       <c r="H24" t="n">
-        <v>0.547950625419617</v>
+        <v>0.9997662305831908</v>
       </c>
       <c r="I24" t="n">
-        <v>0.608558297157288</v>
+        <v>0.4130797982215881</v>
       </c>
       <c r="J24" t="n">
-        <v>0.607108473777771</v>
+        <v>0.9962880611419678</v>
       </c>
       <c r="K24" t="n">
-        <v>0.999789714813232</v>
+        <v>0.9997835159301758</v>
       </c>
       <c r="L24" t="n">
-        <v>0.701266825199127</v>
+        <v>0.9935914874076844</v>
       </c>
       <c r="M24" t="n">
-        <v>0.999734878540039</v>
+        <v>0.9726744294166564</v>
       </c>
       <c r="N24" t="n">
-        <v>0.999827265739441</v>
+        <v>0.9994673728942872</v>
       </c>
       <c r="O24" t="n">
-        <v>0.22607709467411</v>
+        <v>0.170155867934227</v>
       </c>
       <c r="P24" t="n">
-        <v>0.997539520263672</v>
+        <v>0.9979249238967896</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.997539520263672</v>
+        <v>0.8421180844306946</v>
       </c>
       <c r="R24" t="n">
-        <v>0.7909337282180789</v>
+        <v>0.999793827533722</v>
       </c>
       <c r="S24" t="n">
-        <v>0.981564879417419</v>
+        <v>0.9809384942054749</v>
       </c>
       <c r="T24" t="n">
-        <v>0.999791383743286</v>
+        <v>0.998885452747345</v>
       </c>
       <c r="U24" t="n">
-        <v>0.999819219112396</v>
+        <v>0.999500036239624</v>
       </c>
       <c r="V24" t="n">
-        <v>0.322840064764023</v>
+        <v>0.5722314715385437</v>
       </c>
       <c r="W24" t="n">
-        <v>0.618718385696411</v>
+        <v>0.9965749979019164</v>
       </c>
       <c r="X24" t="n">
-        <v>0.854628205299377</v>
+        <v>0.5542280673980713</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.643032550811768</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.600209653377533</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.999501764774322</v>
+        <v>0.6671707630157471</v>
       </c>
     </row>
     <row r="25">
@@ -2530,82 +2384,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.997133374214172</v>
+        <v>0.9987525939941406</v>
       </c>
       <c r="C25" t="n">
-        <v>0.991073131561279</v>
+        <v>0.9981446266174316</v>
       </c>
       <c r="D25" t="n">
-        <v>0.998580515384674</v>
+        <v>0.5854615569114685</v>
       </c>
       <c r="E25" t="n">
-        <v>0.99952232837677</v>
+        <v>0.9996588230133056</v>
       </c>
       <c r="F25" t="n">
-        <v>0.99943482875824</v>
+        <v>0.9994227290153505</v>
       </c>
       <c r="G25" t="n">
-        <v>0.99915337562561</v>
+        <v>0.999212384223938</v>
       </c>
       <c r="H25" t="n">
-        <v>0.996418476104736</v>
+        <v>0.9995206594467164</v>
       </c>
       <c r="I25" t="n">
-        <v>0.993407070636749</v>
+        <v>0.3516498804092407</v>
       </c>
       <c r="J25" t="n">
-        <v>0.997156381607056</v>
+        <v>0.998157262802124</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7192063927650451</v>
+        <v>0.9929412007331848</v>
       </c>
       <c r="L25" t="n">
-        <v>0.999670803546906</v>
+        <v>0.5790355205535889</v>
       </c>
       <c r="M25" t="n">
-        <v>0.999502420425415</v>
+        <v>0.9995523691177368</v>
       </c>
       <c r="N25" t="n">
-        <v>0.62261301279068</v>
+        <v>0.5944441556930542</v>
       </c>
       <c r="O25" t="n">
-        <v>0.993123590946198</v>
+        <v>0.9940060973167421</v>
       </c>
       <c r="P25" t="n">
-        <v>0.713304936885834</v>
+        <v>0.6123310923576355</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.713304936885834</v>
+        <v>0.8192449808120728</v>
       </c>
       <c r="R25" t="n">
-        <v>0.994426012039185</v>
+        <v>0.9020860195159912</v>
       </c>
       <c r="S25" t="n">
-        <v>0.999113142490387</v>
+        <v>0.608847439289093</v>
       </c>
       <c r="T25" t="n">
-        <v>0.165893346071243</v>
+        <v>0.99959397315979</v>
       </c>
       <c r="U25" t="n">
-        <v>0.620068252086639</v>
+        <v>0.5604149699211121</v>
       </c>
       <c r="V25" t="n">
-        <v>0.997814416885376</v>
+        <v>0.617425799369812</v>
       </c>
       <c r="W25" t="n">
-        <v>0.93920773267746</v>
+        <v>0.5827237963676453</v>
       </c>
       <c r="X25" t="n">
-        <v>0.537296056747437</v>
+        <v>0.9995012283325196</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.999452710151672</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.998346745967865</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.996382713317871</v>
+        <v>0.9824231863021852</v>
       </c>
     </row>
     <row r="26">
@@ -2615,82 +2463,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.93345707654953</v>
+        <v>0.99977445602417</v>
       </c>
       <c r="C26" t="n">
-        <v>0.999997854232788</v>
+        <v>0.9683378934860229</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5545141100883479</v>
+        <v>0.6241465210914612</v>
       </c>
       <c r="E26" t="n">
-        <v>0.999603748321533</v>
+        <v>0.9996113777160645</v>
       </c>
       <c r="F26" t="n">
-        <v>0.99992048740387</v>
+        <v>0.9998737573623656</v>
       </c>
       <c r="G26" t="n">
-        <v>0.616037011146545</v>
+        <v>0.9959633350372314</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9999930858612061</v>
+        <v>0.9999914765357972</v>
       </c>
       <c r="I26" t="n">
-        <v>0.999685883522034</v>
+        <v>0.9996935129165648</v>
       </c>
       <c r="J26" t="n">
-        <v>0.999703764915466</v>
+        <v>0.99967622756958</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9593462944030759</v>
+        <v>0.9999579787254332</v>
       </c>
       <c r="L26" t="n">
-        <v>0.999962389469147</v>
+        <v>0.9999459981918336</v>
       </c>
       <c r="M26" t="n">
-        <v>0.999602913856506</v>
+        <v>0.9994487762451172</v>
       </c>
       <c r="N26" t="n">
-        <v>0.172684475779533</v>
+        <v>0.999996781349182</v>
       </c>
       <c r="O26" t="n">
-        <v>0.999999284744263</v>
+        <v>0.9455769062042236</v>
       </c>
       <c r="P26" t="n">
-        <v>0.569074511528015</v>
+        <v>0.9961800575256348</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.569074511528015</v>
+        <v>0.9985984563827516</v>
       </c>
       <c r="R26" t="n">
-        <v>0.194235399365425</v>
+        <v>0.9999870657920836</v>
       </c>
       <c r="S26" t="n">
-        <v>0.999983549118042</v>
+        <v>0.9999940395355223</v>
       </c>
       <c r="T26" t="n">
-        <v>0.999340355396271</v>
+        <v>0.9999953508377076</v>
       </c>
       <c r="U26" t="n">
-        <v>0.999996185302734</v>
+        <v>0.9998199939727784</v>
       </c>
       <c r="V26" t="n">
-        <v>0.999777674674988</v>
+        <v>0.9999845027923584</v>
       </c>
       <c r="W26" t="n">
-        <v>0.999772012233734</v>
+        <v>0.9541416764259338</v>
       </c>
       <c r="X26" t="n">
-        <v>0.99634325504303</v>
+        <v>0.998814582824707</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.998982429504394</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.999908924102783</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.999978065490723</v>
+        <v>0.9999090433120728</v>
       </c>
     </row>
     <row r="27">
@@ -2700,82 +2542,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.999285221099854</v>
+        <v>0.9996767044067384</v>
       </c>
       <c r="C27" t="n">
-        <v>0.903751969337463</v>
+        <v>0.9999470114707948</v>
       </c>
       <c r="D27" t="n">
-        <v>0.86437714099884</v>
+        <v>0.5822058916091919</v>
       </c>
       <c r="E27" t="n">
-        <v>0.603660941123962</v>
+        <v>0.9996542930603028</v>
       </c>
       <c r="F27" t="n">
-        <v>0.999913096427918</v>
+        <v>0.9999379515647888</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9945416450500491</v>
+        <v>0.9952232837677002</v>
       </c>
       <c r="H27" t="n">
-        <v>0.970950365066528</v>
+        <v>0.9793521165847778</v>
       </c>
       <c r="I27" t="n">
-        <v>0.620567858219147</v>
+        <v>0.6592943072319031</v>
       </c>
       <c r="J27" t="n">
-        <v>0.999871551990509</v>
+        <v>0.5399831533432007</v>
       </c>
       <c r="K27" t="n">
-        <v>0.962881743907928</v>
+        <v>0.6623283624649048</v>
       </c>
       <c r="L27" t="n">
-        <v>0.999997735023498</v>
+        <v>0.9999952912330629</v>
       </c>
       <c r="M27" t="n">
-        <v>0.999988317489624</v>
+        <v>0.9999898672103882</v>
       </c>
       <c r="N27" t="n">
-        <v>0.999824166297913</v>
+        <v>0.9998486042022704</v>
       </c>
       <c r="O27" t="n">
-        <v>0.999360918998718</v>
+        <v>0.5491228103637695</v>
       </c>
       <c r="P27" t="n">
-        <v>0.710577666759491</v>
+        <v>0.6957626938819885</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.710577666759491</v>
+        <v>0.5466127991676331</v>
       </c>
       <c r="R27" t="n">
-        <v>0.996618866920471</v>
+        <v>0.9986947178840636</v>
       </c>
       <c r="S27" t="n">
-        <v>0.99958747625351</v>
+        <v>0.5357584357261658</v>
       </c>
       <c r="T27" t="n">
-        <v>0.999673366546631</v>
+        <v>0.9989027976989746</v>
       </c>
       <c r="U27" t="n">
-        <v>0.998305678367615</v>
+        <v>0.5434134006500244</v>
       </c>
       <c r="V27" t="n">
-        <v>0.998074471950531</v>
+        <v>0.5485407710075378</v>
       </c>
       <c r="W27" t="n">
-        <v>0.999825239181519</v>
+        <v>0.997818410396576</v>
       </c>
       <c r="X27" t="n">
-        <v>0.94978678226471</v>
+        <v>0.9998100996017456</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.999746918678284</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0.99962043762207</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0.999755620956421</v>
+        <v>0.9979358911514282</v>
       </c>
     </row>
     <row r="28">
@@ -2785,82 +2621,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.99983012676239</v>
+        <v>0.9999138116836548</v>
       </c>
       <c r="C28" t="n">
-        <v>0.943623423576355</v>
+        <v>0.9999988079071044</v>
       </c>
       <c r="D28" t="n">
-        <v>0.999951720237732</v>
+        <v>0.9998939633369446</v>
       </c>
       <c r="E28" t="n">
-        <v>0.996497988700867</v>
+        <v>0.8310126066207886</v>
       </c>
       <c r="F28" t="n">
-        <v>0.999406337738037</v>
+        <v>0.9995132088661194</v>
       </c>
       <c r="G28" t="n">
-        <v>0.838687181472778</v>
+        <v>0.9998242259025574</v>
       </c>
       <c r="H28" t="n">
-        <v>0.999896883964539</v>
+        <v>0.5488501191139221</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5489820837974549</v>
+        <v>0.9999779462814332</v>
       </c>
       <c r="J28" t="n">
-        <v>0.54214733839035</v>
+        <v>0.5331612229347229</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9999847412109381</v>
+        <v>0.9999732971191406</v>
       </c>
       <c r="L28" t="n">
-        <v>0.999894380569458</v>
+        <v>0.9998849034309388</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9527186155319211</v>
+        <v>0.9999263286590576</v>
       </c>
       <c r="N28" t="n">
-        <v>0.982206106185913</v>
+        <v>0.7981185913085938</v>
       </c>
       <c r="O28" t="n">
-        <v>0.999977231025696</v>
+        <v>0.5293621420860291</v>
       </c>
       <c r="P28" t="n">
-        <v>0.536064982414246</v>
+        <v>0.4625381827354431</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.536064982414246</v>
+        <v>0.999963402748108</v>
       </c>
       <c r="R28" t="n">
-        <v>0.999850451946258</v>
+        <v>0.9999723434448242</v>
       </c>
       <c r="S28" t="n">
-        <v>0.999975025653839</v>
+        <v>0.999999463558197</v>
       </c>
       <c r="T28" t="n">
-        <v>0.532665371894836</v>
+        <v>0.9609959721565248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.999876737594604</v>
+        <v>0.9999896287918092</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5363671779632569</v>
+        <v>0.999970316886902</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9999791979789729</v>
+        <v>0.9996013641357422</v>
       </c>
       <c r="X28" t="n">
-        <v>0.999813914299011</v>
+        <v>0.5738055109977722</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.999952912330627</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.998688697814941</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0.533316195011139</v>
+        <v>0.8507646322250366</v>
       </c>
     </row>
     <row r="29">
@@ -2870,82 +2700,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.999835908412933</v>
+        <v>0.9435847997665404</v>
       </c>
       <c r="C29" t="n">
-        <v>0.999811112880707</v>
+        <v>0.9997575879096984</v>
       </c>
       <c r="D29" t="n">
-        <v>0.999533176422119</v>
+        <v>0.9994419813156128</v>
       </c>
       <c r="E29" t="n">
-        <v>0.999293565750122</v>
+        <v>0.8563510179519653</v>
       </c>
       <c r="F29" t="n">
-        <v>0.999894380569458</v>
+        <v>0.9995142817497252</v>
       </c>
       <c r="G29" t="n">
-        <v>0.999838471412659</v>
+        <v>0.9998989105224608</v>
       </c>
       <c r="H29" t="n">
-        <v>0.946916341781616</v>
+        <v>0.999244749546051</v>
       </c>
       <c r="I29" t="n">
-        <v>0.999405205249786</v>
+        <v>0.710607647895813</v>
       </c>
       <c r="J29" t="n">
-        <v>0.999778151512146</v>
+        <v>0.9999502897262572</v>
       </c>
       <c r="K29" t="n">
-        <v>0.999882698059082</v>
+        <v>0.979749083518982</v>
       </c>
       <c r="L29" t="n">
-        <v>0.537478446960449</v>
+        <v>0.9986010789871216</v>
       </c>
       <c r="M29" t="n">
-        <v>0.999397158622742</v>
+        <v>0.949082851409912</v>
       </c>
       <c r="N29" t="n">
-        <v>0.999854564666748</v>
+        <v>0.9995664954185486</v>
       </c>
       <c r="O29" t="n">
-        <v>0.899609088897705</v>
+        <v>0.5532868504524231</v>
       </c>
       <c r="P29" t="n">
-        <v>0.999913811683655</v>
+        <v>0.5395721793174744</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.999913811683655</v>
+        <v>0.9979459047317504</v>
       </c>
       <c r="R29" t="n">
-        <v>0.998072504997253</v>
+        <v>0.999858260154724</v>
       </c>
       <c r="S29" t="n">
-        <v>0.577350080013275</v>
+        <v>0.5331465601921082</v>
       </c>
       <c r="T29" t="n">
-        <v>0.539622485637665</v>
+        <v>0.2056610733270645</v>
       </c>
       <c r="U29" t="n">
-        <v>0.981561779975891</v>
+        <v>0.9615725874900818</v>
       </c>
       <c r="V29" t="n">
-        <v>0.373346507549286</v>
+        <v>0.9998957514762878</v>
       </c>
       <c r="W29" t="n">
-        <v>0.999883353710175</v>
+        <v>0.9994776248931884</v>
       </c>
       <c r="X29" t="n">
-        <v>0.366589456796646</v>
+        <v>0.9036940336227416</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.999583780765533</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.999406576156616</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0.9997571706771849</v>
+        <v>0.5609891414642334</v>
       </c>
     </row>
     <row r="30">
@@ -2955,82 +2779,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.998591721057892</v>
+        <v>0.1408320367336273</v>
       </c>
       <c r="C30" t="n">
-        <v>0.826361417770386</v>
+        <v>0.7761451005935669</v>
       </c>
       <c r="D30" t="n">
-        <v>0.997471690177918</v>
+        <v>0.6610114574432373</v>
       </c>
       <c r="E30" t="n">
-        <v>0.674307286739349</v>
+        <v>0.989544689655304</v>
       </c>
       <c r="F30" t="n">
-        <v>0.995600402355194</v>
+        <v>0.5416128039360046</v>
       </c>
       <c r="G30" t="n">
-        <v>0.999543249607086</v>
+        <v>0.9836857318878174</v>
       </c>
       <c r="H30" t="n">
-        <v>0.999260067939758</v>
+        <v>0.9992142915725708</v>
       </c>
       <c r="I30" t="n">
-        <v>0.991179704666138</v>
+        <v>0.9963696002960204</v>
       </c>
       <c r="J30" t="n">
-        <v>0.590863704681396</v>
+        <v>0.7038066983222961</v>
       </c>
       <c r="K30" t="n">
-        <v>0.998709082603455</v>
+        <v>0.9881770610809326</v>
       </c>
       <c r="L30" t="n">
-        <v>0.998745322227478</v>
+        <v>0.9979341626167296</v>
       </c>
       <c r="M30" t="n">
-        <v>0.99660074710846</v>
+        <v>0.9950321912765504</v>
       </c>
       <c r="N30" t="n">
-        <v>0.999457240104675</v>
+        <v>0.9992440938949584</v>
       </c>
       <c r="O30" t="n">
-        <v>0.154764592647552</v>
+        <v>0.9995479583740234</v>
       </c>
       <c r="P30" t="n">
-        <v>0.991673648357391</v>
+        <v>0.6060304641723633</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.991673648357391</v>
+        <v>0.8327673077583313</v>
       </c>
       <c r="R30" t="n">
-        <v>0.381515055894852</v>
+        <v>0.9996745586395264</v>
       </c>
       <c r="S30" t="n">
-        <v>0.999621629714966</v>
+        <v>0.9990445375442504</v>
       </c>
       <c r="T30" t="n">
-        <v>0.555436611175537</v>
+        <v>0.9992794990539552</v>
       </c>
       <c r="U30" t="n">
-        <v>0.999226331710815</v>
+        <v>0.999206840991974</v>
       </c>
       <c r="V30" t="n">
-        <v>0.9990469217300419</v>
+        <v>0.9989097118377686</v>
       </c>
       <c r="W30" t="n">
-        <v>0.998791456222534</v>
+        <v>0.6873560547828674</v>
       </c>
       <c r="X30" t="n">
-        <v>0.983493089675903</v>
+        <v>0.555535614490509</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.961155652999878</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0.780795097351074</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0.509174108505249</v>
+        <v>0.5466872453689575</v>
       </c>
     </row>
     <row r="31">
@@ -3040,82 +2858,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9981064796447749</v>
+        <v>0.5415073037147522</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9998487234115599</v>
+        <v>0.9998124837875366</v>
       </c>
       <c r="D31" t="n">
-        <v>0.865962028503418</v>
+        <v>0.9995464086532592</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9997960329055789</v>
+        <v>0.9998222589492798</v>
       </c>
       <c r="F31" t="n">
-        <v>0.991750359535217</v>
+        <v>0.9999545812606812</v>
       </c>
       <c r="G31" t="n">
-        <v>0.99999737739563</v>
+        <v>0.9999489188194276</v>
       </c>
       <c r="H31" t="n">
-        <v>0.541167736053467</v>
+        <v>0.9910825490951538</v>
       </c>
       <c r="I31" t="n">
-        <v>0.995840907096863</v>
+        <v>0.3638649582862854</v>
       </c>
       <c r="J31" t="n">
-        <v>0.999899566173554</v>
+        <v>0.212446928024292</v>
       </c>
       <c r="K31" t="n">
-        <v>0.667249441146851</v>
+        <v>0.9738526344299316</v>
       </c>
       <c r="L31" t="n">
-        <v>0.999999344348908</v>
+        <v>0.9977166652679444</v>
       </c>
       <c r="M31" t="n">
-        <v>0.999955177307129</v>
+        <v>0.9999602437019348</v>
       </c>
       <c r="N31" t="n">
-        <v>0.999924421310425</v>
+        <v>0.5380248427391052</v>
       </c>
       <c r="O31" t="n">
-        <v>0.980079114437103</v>
+        <v>0.9511289596557616</v>
       </c>
       <c r="P31" t="n">
-        <v>0.595210373401642</v>
+        <v>0.9996122121810912</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.595210373401642</v>
+        <v>0.9992914795875548</v>
       </c>
       <c r="R31" t="n">
-        <v>0.9861353039741521</v>
+        <v>0.9997833371162416</v>
       </c>
       <c r="S31" t="n">
-        <v>0.993417620658874</v>
+        <v>0.999842405319214</v>
       </c>
       <c r="T31" t="n">
-        <v>0.999865591526032</v>
+        <v>0.6436853408813477</v>
       </c>
       <c r="U31" t="n">
-        <v>0.999993562698364</v>
+        <v>0.9998310804367064</v>
       </c>
       <c r="V31" t="n">
-        <v>0.999647676944733</v>
+        <v>0.9999846220016479</v>
       </c>
       <c r="W31" t="n">
-        <v>0.999980807304382</v>
+        <v>0.6728755831718445</v>
       </c>
       <c r="X31" t="n">
-        <v>0.994967639446258</v>
+        <v>0.710382342338562</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.997696995735168</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.545784890651703</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0.999976277351379</v>
+        <v>0.9998960494995116</v>
       </c>
     </row>
   </sheetData>

--- a/CNIntelligibility/transposedIntelligibility_lda.xlsx
+++ b/CNIntelligibility/transposedIntelligibility_lda.xlsx
@@ -563,2371 +563,2371 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>01-21377035</t>
+          <t>01-22377201</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5676090717315674</v>
+        <v>0.9999691843986512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9998632669448853</v>
+        <v>0.0921756848692894</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9966397285461426</v>
+        <v>0.5675134658813477</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5416707396507263</v>
+        <v>0.147307887673378</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9076354503631592</v>
+        <v>0.5738949775695801</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5504695177078247</v>
+        <v>0.09963139891624451</v>
       </c>
       <c r="H2" t="n">
-        <v>0.725428581237793</v>
+        <v>0.0710335671901702</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9921685457229614</v>
+        <v>0.1392027139663696</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9962074756622314</v>
+        <v>0.07170736789703359</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9997758865356444</v>
+        <v>0.9997810125350952</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9998847246170044</v>
+        <v>0.08931300044059751</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9978463649749756</v>
+        <v>0.0880143865942955</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9998952150344848</v>
+        <v>0.0879717245697975</v>
       </c>
       <c r="O2" t="n">
-        <v>0.91593998670578</v>
+        <v>0.0791623890399932</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5466160774230957</v>
+        <v>0.1613212972879409</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.302801638841629</v>
+        <v>0.1023293063044548</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9997502565383912</v>
+        <v>0.0949165672063827</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9965237379074096</v>
+        <v>0.258280336856842</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9999520182609558</v>
+        <v>0.5468721985816956</v>
       </c>
       <c r="U2" t="n">
-        <v>0.999978005886078</v>
+        <v>0.5392258763313293</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5361308455467224</v>
+        <v>0.5448485612869263</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7947105169296265</v>
+        <v>0.08088845014572139</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9949976205825806</v>
+        <v>0.5869426727294922</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5467126965522766</v>
+        <v>0.5592652559280396</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>02-22377202</t>
+          <t>02-22377333</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999982714653016</v>
+        <v>0.5586392879486084</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9997247457504272</v>
+        <v>0.1156658977270126</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9992216229438782</v>
+        <v>0.5896638631820679</v>
       </c>
       <c r="E3" t="n">
-        <v>0.994907021522522</v>
+        <v>0.7243571281433105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9994879961013794</v>
+        <v>0.4872933030128479</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9998490810394288</v>
+        <v>0.1018904745578765</v>
       </c>
       <c r="H3" t="n">
-        <v>0.999303102493286</v>
+        <v>0.1056046411395073</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9986677765846252</v>
+        <v>0.2622828781604767</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9982438683509828</v>
+        <v>0.0825699120759964</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4569806456565857</v>
+        <v>0.5392258763313293</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5367461442947388</v>
+        <v>0.5904689431190491</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0810106396675109</v>
+        <v>0.09879276156425471</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9999954700469972</v>
+        <v>0.7074523568153381</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9996030926704408</v>
+        <v>0.5450560450553894</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5283523797988892</v>
+        <v>0.5378674864768982</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5704013705253601</v>
+        <v>0.2075879573822021</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9987916946411132</v>
+        <v>0.09094070643186559</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8381533622741699</v>
+        <v>0.1178914159536361</v>
       </c>
       <c r="T3" t="n">
-        <v>0.540553092956543</v>
+        <v>0.6560164093971252</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4278679490089416</v>
+        <v>0.08539263159036629</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9999719858169556</v>
+        <v>0.538402259349823</v>
       </c>
       <c r="W3" t="n">
-        <v>0.999903917312622</v>
+        <v>0.2844344973564148</v>
       </c>
       <c r="X3" t="n">
-        <v>0.99994558095932</v>
+        <v>0.8109328746795654</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9999919533729552</v>
+        <v>0.5426861643791199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>03-21377053</t>
+          <t>03-21377348</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.535697877407074</v>
+        <v>0.9217878580093384</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9999916553497314</v>
+        <v>0.0983912274241447</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9983325600624084</v>
+        <v>0.9997352361679076</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5445296764373779</v>
+        <v>0.5486099720001221</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999941885471344</v>
+        <v>0.9927032589912416</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4445425868034363</v>
+        <v>0.9974588751792908</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999200105667114</v>
+        <v>0.09066511690616599</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9648817777633668</v>
+        <v>0.7533143162727356</v>
       </c>
       <c r="J4" t="n">
-        <v>0.999253273010254</v>
+        <v>0.08842546492815009</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8301308155059814</v>
+        <v>0.365738570690155</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5367972850799561</v>
+        <v>0.0845787301659584</v>
       </c>
       <c r="M4" t="n">
-        <v>0.999969720840454</v>
+        <v>0.9999189376831056</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6313952207565308</v>
+        <v>0.9124001264572144</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5385081768035889</v>
+        <v>0.5243570804595947</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6863950490951538</v>
+        <v>0.9999197125434875</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.963367223739624</v>
+        <v>0.5425158143043518</v>
       </c>
       <c r="R4" t="n">
-        <v>0.99999737739563</v>
+        <v>0.5133892297744751</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9998602271080016</v>
+        <v>0.07461016625165939</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6467756628990173</v>
+        <v>0.5484946370124817</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9999818801879884</v>
+        <v>0.5354300141334534</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9993427395820618</v>
+        <v>0.2250992953777313</v>
       </c>
       <c r="W4" t="n">
-        <v>0.549737274646759</v>
+        <v>0.112354964017868</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9996579885482788</v>
+        <v>0.5682423710823059</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9994804263114928</v>
+        <v>0.090524211525917</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>04-21377256</t>
+          <t>04-21379216</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9981940388679504</v>
+        <v>0.551300048828125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2124051600694656</v>
+        <v>0.9999933242797852</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8601358532905579</v>
+        <v>0.5432498455047607</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5484927296638489</v>
+        <v>0.1046394929289817</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999834299087524</v>
+        <v>0.9976075887680054</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0854076892137527</v>
+        <v>0.542193591594696</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9925329685211182</v>
+        <v>0.0930738374590873</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9981545209884644</v>
+        <v>0.5364330410957336</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9996243715286256</v>
+        <v>0.5263113379478455</v>
       </c>
       <c r="K5" t="n">
-        <v>0.589979350566864</v>
+        <v>0.5521928668022156</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9992738962173462</v>
+        <v>0.1254710257053375</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9996998310089112</v>
+        <v>0.5690705180168152</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9998238086700439</v>
+        <v>0.2628293335437774</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9992846250534058</v>
+        <v>0.098965972661972</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9990071058273317</v>
+        <v>0.09310129284858699</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9295933246612548</v>
+        <v>0.08921217173337929</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5502336025238037</v>
+        <v>0.099857285618782</v>
       </c>
       <c r="S5" t="n">
-        <v>0.999231457710266</v>
+        <v>0.07281461358070369</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6758244633674622</v>
+        <v>0.5407171845436096</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9979780912399292</v>
+        <v>0.08933247625827789</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9991397261619568</v>
+        <v>0.5367152690887451</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9999620914459229</v>
+        <v>0.2907008826732635</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8711647987365723</v>
+        <v>0.5407539010047913</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.9987529516220092</v>
+        <v>0.5424011945724487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>05-21377006</t>
+          <t>05-21377151</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.273303747177124</v>
+        <v>0.5459778904914856</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9986380934715272</v>
+        <v>0.999413788318634</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1593918204307556</v>
+        <v>0.6377559304237366</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9963295459747314</v>
+        <v>0.1954048722982406</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8935072422027588</v>
+        <v>0.9998750686645508</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999779462814332</v>
+        <v>0.0855560675263404</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9997869729995728</v>
+        <v>0.4998903274536133</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9992233514785768</v>
+        <v>0.097367838025093</v>
       </c>
       <c r="J6" t="n">
-        <v>0.543521523475647</v>
+        <v>0.1773886680603027</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5350579023361206</v>
+        <v>0.53818678855896</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8893672227859497</v>
+        <v>0.5401288270950317</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6030557155609131</v>
+        <v>0.2856818735599518</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9998621940612792</v>
+        <v>0.5521335601806641</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9992936849594116</v>
+        <v>0.2422924935817718</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8405684232711792</v>
+        <v>0.8361947536468506</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.999971330165863</v>
+        <v>0.1716316044330597</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9998584985733032</v>
+        <v>0.999994456768036</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9999773502349854</v>
+        <v>0.0749770551919937</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9999971389770508</v>
+        <v>0.0855457261204719</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9999434351921082</v>
+        <v>0.0872209966182708</v>
       </c>
       <c r="V6" t="n">
-        <v>0.745587944984436</v>
+        <v>0.0882269665598869</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8624037504196167</v>
+        <v>0.7364866733551025</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9999314546585084</v>
+        <v>0.0919836610555648</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5496373176574707</v>
+        <v>0.318620502948761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>06-21377242</t>
+          <t>06-21377076</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999262690544128</v>
+        <v>0.0671122148633003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.998542547225952</v>
+        <v>0.6726590394973755</v>
       </c>
       <c r="D7" t="n">
-        <v>0.994653046131134</v>
+        <v>0.1349287033081054</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5404810905456543</v>
+        <v>0.5476073026657104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999600648880004</v>
+        <v>0.3296751379966736</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999242424964904</v>
+        <v>0.0990872979164123</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9999074935913086</v>
+        <v>0.5500493049621582</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9317246079444884</v>
+        <v>0.1332870423793792</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5417998433113098</v>
+        <v>0.0980200767517089</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9988179206848145</v>
+        <v>0.3053551912307739</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9999902844429016</v>
+        <v>0.0882051736116409</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9999175667762756</v>
+        <v>0.5621379613876343</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9140154719352722</v>
+        <v>0.5600910186767578</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6144523620605469</v>
+        <v>0.0962070450186729</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5354668498039246</v>
+        <v>0.1059465035796165</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8612658977508545</v>
+        <v>0.6107456088066101</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9946483373641968</v>
+        <v>0.5483854413032532</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7542188763618469</v>
+        <v>0.5485188961029053</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5315109491348267</v>
+        <v>0.2191110104322433</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5358271598815918</v>
+        <v>0.080711081624031</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9998009204864502</v>
+        <v>0.0828257501125335</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5667715668678284</v>
+        <v>0.0898161828517913</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9076195359230042</v>
+        <v>0.5649003982543945</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.171513944864273</v>
+        <v>0.9983563423156738</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>07-sy2308207</t>
+          <t>07-21377259</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999790191650392</v>
+        <v>0.1083302870392799</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996045231819152</v>
+        <v>0.5653063654899597</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5469995737075806</v>
+        <v>0.5547370910644531</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9979935884475708</v>
+        <v>0.5079522132873535</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9984769821166992</v>
+        <v>0.247974008321762</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9999767541885376</v>
+        <v>0.076384536921978</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9985806941986084</v>
+        <v>0.591219961643219</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9997378587722778</v>
+        <v>0.1066328138113021</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8626421093940735</v>
+        <v>0.5381701588630676</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9995566606521606</v>
+        <v>0.0722669214010238</v>
       </c>
       <c r="L8" t="n">
-        <v>0.999692440032959</v>
+        <v>0.9275304079055786</v>
       </c>
       <c r="M8" t="n">
-        <v>0.963362455368042</v>
+        <v>0.07360440492629999</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9998973608016968</v>
+        <v>0.5352261066436768</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5526415109634399</v>
+        <v>0.0862790569663047</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5577935576438904</v>
+        <v>0.5457459688186646</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9998153448104858</v>
+        <v>0.8770700693130493</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5979630351066589</v>
+        <v>0.9998332858085632</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9994364976882936</v>
+        <v>0.5530060529708862</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9998492002487184</v>
+        <v>0.5374035239219666</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5874648094177246</v>
+        <v>0.1023692041635513</v>
       </c>
       <c r="V8" t="n">
-        <v>0.9942496418952942</v>
+        <v>0.5325016975402832</v>
       </c>
       <c r="W8" t="n">
-        <v>0.999985694885254</v>
+        <v>0.5545867681503296</v>
       </c>
       <c r="X8" t="n">
-        <v>0.998725414276123</v>
+        <v>0.5339416861534119</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.99843430519104</v>
+        <v>0.8315116763114929</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>08-21377175</t>
+          <t>08-y2342116</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.998850643634796</v>
+        <v>0.09023440629243849</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999841809272766</v>
+        <v>0.4373155832290649</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5987779498100281</v>
+        <v>0.100570760667324</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6890542507171631</v>
+        <v>0.9938210248947144</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9997528791427612</v>
+        <v>0.5182293653488159</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1004849597811698</v>
+        <v>0.0840570330619812</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8709725141525269</v>
+        <v>0.5512614250183105</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9991881251335144</v>
+        <v>0.9941038489341736</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9999904036521912</v>
+        <v>0.9996120929718018</v>
       </c>
       <c r="K9" t="n">
-        <v>0.978707194328308</v>
+        <v>0.08386863023042671</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5685303211212158</v>
+        <v>0.0812504589557647</v>
       </c>
       <c r="M9" t="n">
-        <v>0.999722957611084</v>
+        <v>0.091059923171997</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2870393097400665</v>
+        <v>0.211374431848526</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5684100985527039</v>
+        <v>0.9272364377975464</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9978891015052797</v>
+        <v>0.5416975021362305</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3102128803730011</v>
+        <v>0.5951201915740967</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9964813590049744</v>
+        <v>0.9999938011169434</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9998387694358826</v>
+        <v>0.0785371363162994</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5794019103050232</v>
+        <v>0.5298069715499878</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9994943141937256</v>
+        <v>0.5405430197715759</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7638397216796875</v>
+        <v>0.5347129106521606</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5327382683753967</v>
+        <v>0.0745657607913017</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1728138178586959</v>
+        <v>0.539918065071106</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9965976476669312</v>
+        <v>0.7893221974372864</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>09-21377163</t>
+          <t>09-21377174</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997401237487792</v>
+        <v>0.5317378044128418</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9926964640617372</v>
+        <v>0.2418628633022308</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9990439414978028</v>
+        <v>0.1390591412782669</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5833451747894287</v>
+        <v>0.5953322649002075</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7918789386749268</v>
+        <v>0.3764272034168243</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5497373342514038</v>
+        <v>0.1846983730792999</v>
       </c>
       <c r="H10" t="n">
-        <v>0.999447464942932</v>
+        <v>0.5846875905990601</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5713273882865906</v>
+        <v>0.0916658490896225</v>
       </c>
       <c r="J10" t="n">
-        <v>0.999634563922882</v>
+        <v>0.2244972884654998</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9995583295822144</v>
+        <v>0.0971349626779556</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9987306594848632</v>
+        <v>0.8895320296287537</v>
       </c>
       <c r="M10" t="n">
-        <v>0.99996018409729</v>
+        <v>0.8368867635726929</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5965192914009094</v>
+        <v>0.0745018422603607</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9983407258987428</v>
+        <v>0.1274549663066864</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9987504482269288</v>
+        <v>0.5143909454345703</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6067853569984436</v>
+        <v>0.7749617695808411</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8247900605201721</v>
+        <v>0.5317329168319702</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4827243685722351</v>
+        <v>0.1727236360311508</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9153313040733336</v>
+        <v>0.2426975965499878</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5657779574394226</v>
+        <v>0.0819514691829681</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6122602820396423</v>
+        <v>0.0771549195051193</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5324612855911255</v>
+        <v>0.0910003781318664</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9990341663360596</v>
+        <v>0.0928107351064682</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.9995770454406738</v>
+        <v>0.6195720434188843</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>10-sy2308220</t>
+          <t>10-21377335</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9937078952789308</v>
+        <v>0.5370109677314758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9998462200164796</v>
+        <v>0.0917878746986389</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9938408136367798</v>
+        <v>0.5476517081260681</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9994550943374634</v>
+        <v>0.5548266172409058</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999865293502808</v>
+        <v>0.9998732805252076</v>
       </c>
       <c r="G11" t="n">
-        <v>0.999553680419922</v>
+        <v>0.194009244441986</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0751043185591697</v>
+        <v>0.7548974752426147</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9996664524078368</v>
+        <v>0.0838378369808197</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5364570021629333</v>
+        <v>0.5405526757240295</v>
       </c>
       <c r="K11" t="n">
-        <v>0.999292254447937</v>
+        <v>0.0863552391529083</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5558229088783264</v>
+        <v>0.5534415245056152</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7690556049346924</v>
+        <v>0.076478824019432</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9996131062507628</v>
+        <v>0.6099660992622375</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9990644454956056</v>
+        <v>0.6162120699882507</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5446519255638123</v>
+        <v>0.5436042547225952</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.998775839805603</v>
+        <v>0.3101508915424347</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9986491203308104</v>
+        <v>0.5490790009498596</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8850717544555664</v>
+        <v>0.07562340795993799</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9991866946220398</v>
+        <v>0.0934214442968368</v>
       </c>
       <c r="U11" t="n">
-        <v>0.999819040298462</v>
+        <v>0.999963402748108</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6888258457183838</v>
+        <v>0.915863275527954</v>
       </c>
       <c r="W11" t="n">
-        <v>0.9967944622039796</v>
+        <v>0.4482399225234985</v>
       </c>
       <c r="X11" t="n">
-        <v>0.2087172120809555</v>
+        <v>0.0691737979650497</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.8680896759033203</v>
+        <v>0.9999572038650512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>11-22377339</t>
+          <t>11-21377187</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998643398284912</v>
+        <v>0.091351181268692</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999475479125975</v>
+        <v>0.9257870316505432</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5416423678398132</v>
+        <v>0.9985939264297484</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5299482345581055</v>
+        <v>0.5799340009689331</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998493194580078</v>
+        <v>0.5465936660766602</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9998884201049804</v>
+        <v>0.9293341636657716</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5412986278533936</v>
+        <v>0.0898834317922592</v>
       </c>
       <c r="I12" t="n">
-        <v>0.880856990814209</v>
+        <v>0.5384162664413452</v>
       </c>
       <c r="J12" t="n">
-        <v>0.999990463256836</v>
+        <v>0.5602583885192871</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9999415278434752</v>
+        <v>0.5311046838760376</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6084508299827576</v>
+        <v>0.9491131901741028</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9999530911445618</v>
+        <v>0.08205078542232511</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9999954700469972</v>
+        <v>0.0746399462223053</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9999945163726808</v>
+        <v>0.9998457431793212</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6987937092781067</v>
+        <v>0.4849416613578796</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7025212645530701</v>
+        <v>0.4947066605091095</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5389128923416138</v>
+        <v>0.9989719986915588</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9999914765357972</v>
+        <v>0.0856182649731636</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9792180061340332</v>
+        <v>0.5503740310668945</v>
       </c>
       <c r="U12" t="n">
-        <v>0.999531865119934</v>
+        <v>0.5749050378799438</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9997583627700806</v>
+        <v>0.5433172583580017</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9999986886978148</v>
+        <v>0.555770218372345</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9346712231636048</v>
+        <v>0.0763856098055839</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.9988608360290528</v>
+        <v>0.1183076873421669</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>12-20377292</t>
+          <t>12-22377142</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5398090481758118</v>
+        <v>0.1537255197763443</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990444183349608</v>
+        <v>0.1629518568515777</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9180890321731568</v>
+        <v>0.6511080861091614</v>
       </c>
       <c r="E13" t="n">
-        <v>0.999796748161316</v>
+        <v>0.1339991092681884</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5330799221992493</v>
+        <v>0.5332302451133728</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9988250732421876</v>
+        <v>0.9999308586120604</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8422470092773438</v>
+        <v>0.3486968278884887</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9991844892501832</v>
+        <v>0.1315595507621765</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9999974370002748</v>
+        <v>0.5299213528633118</v>
       </c>
       <c r="K13" t="n">
-        <v>0.998792290687561</v>
+        <v>0.5366844534873962</v>
       </c>
       <c r="L13" t="n">
-        <v>0.924258828163147</v>
+        <v>0.5943312048912048</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9992579221725464</v>
+        <v>0.3837381601333618</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9997528195381165</v>
+        <v>0.0684032216668129</v>
       </c>
       <c r="O13" t="n">
-        <v>0.988487720489502</v>
+        <v>0.544094979763031</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9999004602432252</v>
+        <v>0.07489576935768121</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9980258345603944</v>
+        <v>0.207547128200531</v>
       </c>
       <c r="R13" t="n">
-        <v>0.7233545184135437</v>
+        <v>0.8302223086357117</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9999450445175172</v>
+        <v>0.2921580672264099</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0987384915351867</v>
+        <v>0.5638314485549927</v>
       </c>
       <c r="U13" t="n">
-        <v>0.9895508885383606</v>
+        <v>0.4912779629230499</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9999788999557496</v>
+        <v>0.265023410320282</v>
       </c>
       <c r="W13" t="n">
-        <v>0.9999855756759644</v>
+        <v>0.5580751299858093</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9998737573623656</v>
+        <v>0.093456894159317</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.9994621276855468</v>
+        <v>0.5597817301750183</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>13-20377387</t>
+          <t>13-21377181</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.999915599822998</v>
+        <v>0.5535567998886108</v>
       </c>
       <c r="C14" t="n">
-        <v>0.533912718296051</v>
+        <v>0.5602006316184998</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6127634048461914</v>
+        <v>0.2696462273597717</v>
       </c>
       <c r="E14" t="n">
-        <v>0.997359037399292</v>
+        <v>0.1461816132068634</v>
       </c>
       <c r="F14" t="n">
-        <v>0.999929904937744</v>
+        <v>0.5369990468025208</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9999318718910216</v>
+        <v>0.99992573261261</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9205055832862854</v>
+        <v>0.08667512983083719</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9996270537376404</v>
+        <v>0.5557628870010376</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5311390161514282</v>
+        <v>0.9996161460876464</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9989526271820068</v>
+        <v>0.0830042585730552</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5636354088783264</v>
+        <v>0.4804093539714813</v>
       </c>
       <c r="M14" t="n">
-        <v>0.721554160118103</v>
+        <v>0.7073151469230652</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1139232367277145</v>
+        <v>0.0724805444478988</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999955713748932</v>
+        <v>0.5551826357841492</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9999679327011108</v>
+        <v>0.5464867949485779</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5722955465316772</v>
+        <v>0.2264827638864517</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6908848285675049</v>
+        <v>0.3728649020195007</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9999929666519164</v>
+        <v>0.0940773263573646</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9999763369560242</v>
+        <v>0.5320869088172913</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9365613460540771</v>
+        <v>0.9973146915435792</v>
       </c>
       <c r="V14" t="n">
-        <v>0.9999997615814208</v>
+        <v>0.0790092200040817</v>
       </c>
       <c r="W14" t="n">
-        <v>0.9999347329139709</v>
+        <v>0.5932201147079468</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9998958110809326</v>
+        <v>0.09378154575824731</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.9998648166656494</v>
+        <v>0.1686873137950897</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>14-20377359</t>
+          <t>14-21377369</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6021381616592407</v>
+        <v>0.5140638947486877</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5146049857139587</v>
+        <v>0.1242077052593231</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5525544285774231</v>
+        <v>0.5818136930465698</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9993603229522704</v>
+        <v>0.5433889031410217</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9817182421684264</v>
+        <v>0.6023513078689575</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9998710155487061</v>
+        <v>0.999992847442627</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9999823570251464</v>
+        <v>0.5342602729797363</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5476088523864746</v>
+        <v>0.0991174504160881</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9998806715011596</v>
+        <v>0.1553556025028228</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6611153483390808</v>
+        <v>0.5658891201019287</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5278699398040771</v>
+        <v>0.1068073287606239</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9999895095825196</v>
+        <v>0.5369647741317749</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9999281764030457</v>
+        <v>0.2000123560428619</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6902202963829041</v>
+        <v>0.5588201880455017</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9999842047691344</v>
+        <v>0.5349328517913818</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.56346595287323</v>
+        <v>0.5444965362548828</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6300084590911865</v>
+        <v>0.1087129116058349</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9999423623085022</v>
+        <v>0.0872528776526451</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5904086232185364</v>
+        <v>0.0747292041778564</v>
       </c>
       <c r="U15" t="n">
-        <v>0.6972724795341492</v>
+        <v>0.5361741185188293</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5424617528915405</v>
+        <v>0.1001731976866722</v>
       </c>
       <c r="W15" t="n">
-        <v>0.7012781500816345</v>
+        <v>0.9996160268783568</v>
       </c>
       <c r="X15" t="n">
-        <v>0.7924495935440063</v>
+        <v>0.0801575556397438</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9998831748962402</v>
+        <v>0.107067123055458</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>15-BY2308108</t>
+          <t>15-22377053</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9981569647789</v>
+        <v>0.0793619081377983</v>
       </c>
       <c r="C16" t="n">
-        <v>0.999671757221222</v>
+        <v>0.7157734632492065</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5680564641952515</v>
+        <v>0.6066429615020752</v>
       </c>
       <c r="E16" t="n">
-        <v>0.545767068862915</v>
+        <v>0.1779004335403442</v>
       </c>
       <c r="F16" t="n">
-        <v>0.534496009349823</v>
+        <v>0.09686225652694699</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9999883770942688</v>
+        <v>0.5347291231155396</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9997363686561584</v>
+        <v>0.210630252957344</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1586239486932754</v>
+        <v>0.94679594039917</v>
       </c>
       <c r="J16" t="n">
-        <v>0.999849796295166</v>
+        <v>0.9999839067459106</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5474842190742493</v>
+        <v>0.999549388885498</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5312433242797852</v>
+        <v>0.541217565536499</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9997899532318116</v>
+        <v>0.551118016242981</v>
       </c>
       <c r="N16" t="n">
-        <v>0.999294102191925</v>
+        <v>0.1907227635383606</v>
       </c>
       <c r="O16" t="n">
-        <v>0.999897837638855</v>
+        <v>0.5555063486099243</v>
       </c>
       <c r="P16" t="n">
-        <v>0.7686502933502197</v>
+        <v>0.6415356993675232</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6978384256362915</v>
+        <v>0.5664705038070679</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5499511361122131</v>
+        <v>0.0804916992783546</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9997860789299012</v>
+        <v>0.0911935865879058</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3719755411148071</v>
+        <v>0.0972110703587532</v>
       </c>
       <c r="U16" t="n">
-        <v>0.9997926950454712</v>
+        <v>0.554194450378418</v>
       </c>
       <c r="V16" t="n">
-        <v>0.9977751970291138</v>
+        <v>0.5404903888702393</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1216896548867225</v>
+        <v>0.9993127584457396</v>
       </c>
       <c r="X16" t="n">
-        <v>0.9997047185897828</v>
+        <v>0.5421947836875916</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.9966057538986206</v>
+        <v>0.1267673075199127</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>16-by2308145</t>
+          <t>16-22377084</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5574682354927063</v>
+        <v>0.1252305209636688</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9553989171981812</v>
+        <v>0.08388685435056679</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7548807859420776</v>
+        <v>0.540242075920105</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9910703897476196</v>
+        <v>0.1110710054636001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998933076858521</v>
+        <v>0.9928282499313354</v>
       </c>
       <c r="G17" t="n">
-        <v>0.999689280986786</v>
+        <v>0.1004743203520774</v>
       </c>
       <c r="H17" t="n">
-        <v>0.596892237663269</v>
+        <v>0.5522487759590149</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9993886947631836</v>
+        <v>0.5522509813308716</v>
       </c>
       <c r="J17" t="n">
-        <v>0.653958797454834</v>
+        <v>0.6174784898757935</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9999918937683104</v>
+        <v>0.1084405705332756</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9999960064888</v>
+        <v>0.9525707960128784</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5459614992141724</v>
+        <v>0.0873815193772316</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9713857173919678</v>
+        <v>0.0954941362142562</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5451260805130005</v>
+        <v>0.1318776160478592</v>
       </c>
       <c r="P17" t="n">
-        <v>0.9999713897705078</v>
+        <v>0.0985332056879997</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.993891716003418</v>
+        <v>0.9990437030792236</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9999988079071044</v>
+        <v>0.5848013758659363</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9866442680358888</v>
+        <v>0.1733896285295486</v>
       </c>
       <c r="T17" t="n">
-        <v>0.9998944997787476</v>
+        <v>0.5670769810676575</v>
       </c>
       <c r="U17" t="n">
-        <v>0.981465220451355</v>
+        <v>0.5486476421356201</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5379641056060791</v>
+        <v>0.5832699537277222</v>
       </c>
       <c r="W17" t="n">
-        <v>0.9991748332977296</v>
+        <v>0.9994776248931884</v>
       </c>
       <c r="X17" t="n">
-        <v>0.6962882280349731</v>
+        <v>0.1097703427076339</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.9897481203079224</v>
+        <v>0.1358451247215271</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>17-zy2308131</t>
+          <t>17-21377185</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.999603807926178</v>
+        <v>0.1243387684226036</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5345684885978699</v>
+        <v>0.537804901599884</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9868651628494264</v>
+        <v>0.1284207552671432</v>
       </c>
       <c r="E18" t="n">
-        <v>0.64457106590271</v>
+        <v>0.131792664527893</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9993377923965454</v>
+        <v>0.087965078651905</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6740236878395081</v>
+        <v>0.1081999093294143</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9709007740020752</v>
+        <v>0.4582163393497467</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6007469892501831</v>
+        <v>0.5761023163795471</v>
       </c>
       <c r="J18" t="n">
-        <v>0.999830961227417</v>
+        <v>0.5584224462509155</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9988150596618652</v>
+        <v>0.1213342919945716</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2970306277275085</v>
+        <v>0.08033259212970729</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6865782141685486</v>
+        <v>0.08127337694168089</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5458300113677979</v>
+        <v>0.07067073881626119</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9995678663253784</v>
+        <v>0.1775471121072769</v>
       </c>
       <c r="P18" t="n">
-        <v>0.584942102432251</v>
+        <v>0.1210831105709075</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7191838026046753</v>
+        <v>0.9997274875640868</v>
       </c>
       <c r="R18" t="n">
-        <v>0.825656533241272</v>
+        <v>0.1322126388549804</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9182956218719482</v>
+        <v>0.565610408782959</v>
       </c>
       <c r="T18" t="n">
-        <v>0.999248743057251</v>
+        <v>0.1288279742002487</v>
       </c>
       <c r="U18" t="n">
-        <v>0.999398708343506</v>
+        <v>0.5641559362411499</v>
       </c>
       <c r="V18" t="n">
-        <v>0.554477334022522</v>
+        <v>0.1002238392829895</v>
       </c>
       <c r="W18" t="n">
-        <v>0.9964980483055116</v>
+        <v>0.5359004735946655</v>
       </c>
       <c r="X18" t="n">
-        <v>0.99985933303833</v>
+        <v>0.5552355647087097</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.6050484776496887</v>
+        <v>0.5352708697319031</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>18-BY2308106</t>
+          <t>18-21377184</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0868748649954795</v>
+        <v>0.1365530341863632</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5546610951423645</v>
+        <v>0.2201581001281738</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5740130543708801</v>
+        <v>0.5568676590919495</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6066584587097168</v>
+        <v>0.5634357929229736</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999969005584716</v>
+        <v>0.5638436079025269</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1856490671634674</v>
+        <v>0.6070256233215332</v>
       </c>
       <c r="H19" t="n">
-        <v>0.999367892742157</v>
+        <v>0.1064243018627166</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5655030608177185</v>
+        <v>0.1804759502410888</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9997586011886596</v>
+        <v>0.9999966025352478</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9989006519317628</v>
+        <v>0.5467825531959534</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4748686850070953</v>
+        <v>0.1040912717580795</v>
       </c>
       <c r="M19" t="n">
-        <v>0.54913330078125</v>
+        <v>0.0841542556881904</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9999043941497804</v>
+        <v>0.1093805134296417</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9873273372650146</v>
+        <v>0.095864400267601</v>
       </c>
       <c r="P19" t="n">
-        <v>0.6798691749572754</v>
+        <v>0.4630816280841827</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9990683794021606</v>
+        <v>0.6746207475662231</v>
       </c>
       <c r="R19" t="n">
-        <v>0.7147537469863892</v>
+        <v>0.5633395910263062</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9953081011772156</v>
+        <v>0.353808045387268</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5356446504592896</v>
+        <v>0.0799157470464706</v>
       </c>
       <c r="U19" t="n">
-        <v>0.9999178051948548</v>
+        <v>0.5674262046813965</v>
       </c>
       <c r="V19" t="n">
-        <v>0.9999656081199646</v>
+        <v>0.3504442572593689</v>
       </c>
       <c r="W19" t="n">
-        <v>0.5353816747665405</v>
+        <v>0.573279857635498</v>
       </c>
       <c r="X19" t="n">
-        <v>0.5599365234375</v>
+        <v>0.2537575364112854</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.999849259853363</v>
+        <v>0.5573544502258301</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>19-BY2308111</t>
+          <t>19-y2314202</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9988570213317872</v>
+        <v>0.5148710608482361</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7165859341621399</v>
+        <v>0.0999944657087326</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6537195444107056</v>
+        <v>0.6151449084281921</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3633762300014496</v>
+        <v>0.9828658103942872</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6432370543479919</v>
+        <v>0.2745811939239502</v>
       </c>
       <c r="G20" t="n">
-        <v>0.996257185935974</v>
+        <v>0.1537310183048248</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8122975826263428</v>
+        <v>0.20807446539402</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9996410608291626</v>
+        <v>0.6094294786453247</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9993658065795898</v>
+        <v>0.09400671720504759</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8914759159088135</v>
+        <v>0.1434667557477951</v>
       </c>
       <c r="L20" t="n">
-        <v>0.999637246131897</v>
+        <v>0.9982745051383972</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5359397530555725</v>
+        <v>0.1410588920116424</v>
       </c>
       <c r="N20" t="n">
-        <v>0.5509881377220154</v>
+        <v>0.1660430282354354</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9998664855957032</v>
+        <v>0.5712373852729797</v>
       </c>
       <c r="P20" t="n">
-        <v>0.5789049863815308</v>
+        <v>0.6761500835418701</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6219642758369446</v>
+        <v>0.2163426280021667</v>
       </c>
       <c r="R20" t="n">
-        <v>0.9704052209854126</v>
+        <v>0.579992949962616</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9999233484268188</v>
+        <v>0.5894244313240051</v>
       </c>
       <c r="T20" t="n">
-        <v>0.9997581243515016</v>
+        <v>0.1857543289661407</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9992641806602478</v>
+        <v>0.1021007895469665</v>
       </c>
       <c r="V20" t="n">
-        <v>0.9995385408401488</v>
+        <v>0.9828916788101196</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1600915491580963</v>
+        <v>0.1376950740814209</v>
       </c>
       <c r="X20" t="n">
-        <v>0.9998667240142822</v>
+        <v>0.187300756573677</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.9998574256896972</v>
+        <v>0.1218562275171279</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>20-ZY2207207</t>
+          <t>20-21377171</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999972581863404</v>
+        <v>0.0827617645263671</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8918930888175964</v>
+        <v>0.1179049685597419</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9996747374534608</v>
+        <v>0.1368651837110519</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1012804433703422</v>
+        <v>0.08821436762809751</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999929666519164</v>
+        <v>0.1577331125736236</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5355706810951233</v>
+        <v>0.2261282205581665</v>
       </c>
       <c r="H21" t="n">
-        <v>0.998282790184021</v>
+        <v>0.1071005761623382</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9997986555099488</v>
+        <v>0.5337331295013428</v>
       </c>
       <c r="J21" t="n">
-        <v>0.998672902584076</v>
+        <v>0.4244792461395263</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9999972581863404</v>
+        <v>0.9849935173988342</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5290928483009338</v>
+        <v>0.1166500225663185</v>
       </c>
       <c r="M21" t="n">
-        <v>0.999980092048645</v>
+        <v>0.116745188832283</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5389883518218994</v>
+        <v>0.148693561553955</v>
       </c>
       <c r="O21" t="n">
-        <v>0.999972939491272</v>
+        <v>0.07603861391544341</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7071431875228882</v>
+        <v>0.3866903781890869</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.9999133348464966</v>
+        <v>0.1810858100652694</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5397063493728638</v>
+        <v>0.5382513403892517</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9998213052749634</v>
+        <v>0.5649265646934509</v>
       </c>
       <c r="T21" t="n">
-        <v>0.5376071929931641</v>
+        <v>0.1336852312088012</v>
       </c>
       <c r="U21" t="n">
-        <v>0.5311962366104126</v>
+        <v>0.5486125946044922</v>
       </c>
       <c r="V21" t="n">
-        <v>0.9999918937683104</v>
+        <v>0.972264051437378</v>
       </c>
       <c r="W21" t="n">
-        <v>0.9364649057388306</v>
+        <v>0.1948961615562439</v>
       </c>
       <c r="X21" t="n">
-        <v>0.4456746578216553</v>
+        <v>0.0807611271739006</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.5403915643692017</v>
+        <v>0.4137060940265655</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>21-by2308134</t>
+          <t>21-22377260</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9989817142486572</v>
+        <v>0.147268071770668</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9999324083328248</v>
+        <v>0.5672364234924316</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9845908880233764</v>
+        <v>0.1144936233758926</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9970741271972656</v>
+        <v>0.9704989790916444</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5406632423400879</v>
+        <v>0.0813017785549163</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5092474222183228</v>
+        <v>0.5330775380134583</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6254602670669556</v>
+        <v>0.0861625522375106</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9995614290237428</v>
+        <v>0.5544489622116089</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9995086193084716</v>
+        <v>0.1225875318050384</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6973457336425781</v>
+        <v>0.1451037973165512</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9995117783546448</v>
+        <v>0.1399953663349151</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9997880458831788</v>
+        <v>0.173279657959938</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9998759031295776</v>
+        <v>0.146223098039627</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9998698234558104</v>
+        <v>0.5605606436729431</v>
       </c>
       <c r="P22" t="n">
-        <v>0.9922937154769896</v>
+        <v>0.7260574698448181</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.9972398281097412</v>
+        <v>0.5124584436416626</v>
       </c>
       <c r="R22" t="n">
-        <v>0.7359525561332703</v>
+        <v>0.5719218254089355</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9992992877960204</v>
+        <v>0.997339963912964</v>
       </c>
       <c r="T22" t="n">
-        <v>0.5301271080970764</v>
+        <v>0.1188939809799194</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9997682571411132</v>
+        <v>0.0923658460378646</v>
       </c>
       <c r="V22" t="n">
-        <v>0.9999605417251588</v>
+        <v>0.1035243049263954</v>
       </c>
       <c r="W22" t="n">
-        <v>0.9996909499168396</v>
+        <v>0.1240160539746284</v>
       </c>
       <c r="X22" t="n">
-        <v>0.999648094177246</v>
+        <v>0.0992947146296501</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.2073490917682647</v>
+        <v>0.1050176471471786</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>22-22377318</t>
+          <t>22-21377225</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9997456073760986</v>
+        <v>0.739279568195343</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9999121427536012</v>
+        <v>0.9924123287200928</v>
       </c>
       <c r="D23" t="n">
-        <v>0.614862859249115</v>
+        <v>0.07632001489400859</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9968464374542236</v>
+        <v>0.5902800559997559</v>
       </c>
       <c r="F23" t="n">
-        <v>0.868975043296814</v>
+        <v>0.0814441218972206</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9993805289268494</v>
+        <v>0.1196515411138534</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4262877702713012</v>
+        <v>0.5741074085235596</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9985838532447816</v>
+        <v>0.0932127684354782</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5870978236198425</v>
+        <v>0.0901173651218414</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8334475755691528</v>
+        <v>0.9270854592323304</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9998059272766112</v>
+        <v>0.1622287631034851</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8460893034934998</v>
+        <v>0.1251578778028488</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9954875111579896</v>
+        <v>0.7346036434173584</v>
       </c>
       <c r="O23" t="n">
-        <v>0.9967423677444458</v>
+        <v>0.103610523045063</v>
       </c>
       <c r="P23" t="n">
-        <v>0.991848349571228</v>
+        <v>0.9974589347839355</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.9971420168876648</v>
+        <v>0.097320556640625</v>
       </c>
       <c r="R23" t="n">
-        <v>0.5196192860603333</v>
+        <v>0.5630295276641846</v>
       </c>
       <c r="S23" t="n">
-        <v>0.999898076057434</v>
+        <v>0.3102902770042419</v>
       </c>
       <c r="T23" t="n">
-        <v>0.9998786449432372</v>
+        <v>0.578152596950531</v>
       </c>
       <c r="U23" t="n">
-        <v>0.5410640239715576</v>
+        <v>0.08949046581983559</v>
       </c>
       <c r="V23" t="n">
-        <v>0.7886178493499756</v>
+        <v>0.5355846881866455</v>
       </c>
       <c r="W23" t="n">
-        <v>0.5497065186500549</v>
+        <v>0.5499048233032227</v>
       </c>
       <c r="X23" t="n">
-        <v>0.5566584467887878</v>
+        <v>0.154720664024353</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.5442481637001038</v>
+        <v>0.5332692861557007</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>23-21377298</t>
+          <t>23-22377206</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9997775554656982</v>
+        <v>0.84541916847229</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9996708631515504</v>
+        <v>0.1104270443320274</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8738628625869751</v>
+        <v>0.2368681728839874</v>
       </c>
       <c r="E24" t="n">
-        <v>0.985998511314392</v>
+        <v>0.6687490940093994</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9616479873657228</v>
+        <v>0.5580207705497742</v>
       </c>
       <c r="G24" t="n">
-        <v>0.999117374420166</v>
+        <v>0.08021198213100431</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9997662305831908</v>
+        <v>0.1655215620994568</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4130797982215881</v>
+        <v>0.350520372390747</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9962880611419678</v>
+        <v>0.08365949988365171</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9997835159301758</v>
+        <v>0.9426103830337524</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9935914874076844</v>
+        <v>0.5327041149139404</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9726744294166564</v>
+        <v>0.08624041080474849</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9994673728942872</v>
+        <v>0.5511401295661926</v>
       </c>
       <c r="O24" t="n">
-        <v>0.170155867934227</v>
+        <v>0.0727068856358528</v>
       </c>
       <c r="P24" t="n">
-        <v>0.9979249238967896</v>
+        <v>0.5490710735321045</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.8421180844306946</v>
+        <v>0.1747564673423767</v>
       </c>
       <c r="R24" t="n">
-        <v>0.999793827533722</v>
+        <v>0.5525791645050049</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9809384942054749</v>
+        <v>0.1047229096293449</v>
       </c>
       <c r="T24" t="n">
-        <v>0.998885452747345</v>
+        <v>0.1355217099189758</v>
       </c>
       <c r="U24" t="n">
-        <v>0.999500036239624</v>
+        <v>0.5275981426239014</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5722314715385437</v>
+        <v>0.09965769946575161</v>
       </c>
       <c r="W24" t="n">
-        <v>0.9965749979019164</v>
+        <v>0.5335498452186584</v>
       </c>
       <c r="X24" t="n">
-        <v>0.5542280673980713</v>
+        <v>0.1109590828418731</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.6671707630157471</v>
+        <v>0.9984924793243408</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>24-BY2308103</t>
+          <t>24-21377003</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9987525939941406</v>
+        <v>0.1970955729484558</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9981446266174316</v>
+        <v>0.5403324365615845</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5854615569114685</v>
+        <v>0.5587248802185059</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9996588230133056</v>
+        <v>0.1277603060007095</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9994227290153505</v>
+        <v>0.5414751768112183</v>
       </c>
       <c r="G25" t="n">
-        <v>0.999212384223938</v>
+        <v>0.1228439509868621</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9995206594467164</v>
+        <v>0.2343257069587707</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3516498804092407</v>
+        <v>0.0952755361795425</v>
       </c>
       <c r="J25" t="n">
-        <v>0.998157262802124</v>
+        <v>0.5910171866416931</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9929412007331848</v>
+        <v>0.5467378497123718</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5790355205535889</v>
+        <v>0.0876818150281906</v>
       </c>
       <c r="M25" t="n">
-        <v>0.9995523691177368</v>
+        <v>0.0848084241151809</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5944441556930542</v>
+        <v>0.1051401942968368</v>
       </c>
       <c r="O25" t="n">
-        <v>0.9940060973167421</v>
+        <v>0.1220926195383071</v>
       </c>
       <c r="P25" t="n">
-        <v>0.6123310923576355</v>
+        <v>0.1023868024349212</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8192449808120728</v>
+        <v>0.1609588265419006</v>
       </c>
       <c r="R25" t="n">
-        <v>0.9020860195159912</v>
+        <v>0.1139838844537735</v>
       </c>
       <c r="S25" t="n">
-        <v>0.608847439289093</v>
+        <v>0.2799612879753113</v>
       </c>
       <c r="T25" t="n">
-        <v>0.99959397315979</v>
+        <v>0.4697990715503692</v>
       </c>
       <c r="U25" t="n">
-        <v>0.5604149699211121</v>
+        <v>0.08537190407514569</v>
       </c>
       <c r="V25" t="n">
-        <v>0.617425799369812</v>
+        <v>0.1510971784591674</v>
       </c>
       <c r="W25" t="n">
-        <v>0.5827237963676453</v>
+        <v>0.5567807555198669</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9995012283325196</v>
+        <v>0.2880066335201263</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.9824231863021852</v>
+        <v>0.1027533784508705</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>25-SY2308310</t>
+          <t>25-22377028</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.99977445602417</v>
+        <v>0.5953566431999207</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9683378934860229</v>
+        <v>0.5462654232978821</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6241465210914612</v>
+        <v>0.1005343273282051</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9996113777160645</v>
+        <v>0.0890243873000145</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998737573623656</v>
+        <v>0.5682132244110107</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9959633350372314</v>
+        <v>0.0918855518102645</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9999914765357972</v>
+        <v>0.9987935423851012</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9996935129165648</v>
+        <v>0.1275812983512878</v>
       </c>
       <c r="J26" t="n">
-        <v>0.99967622756958</v>
+        <v>0.5297211408615112</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9999579787254332</v>
+        <v>0.5416718125343323</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9999459981918336</v>
+        <v>0.495695561170578</v>
       </c>
       <c r="M26" t="n">
-        <v>0.9994487762451172</v>
+        <v>0.5657669305801392</v>
       </c>
       <c r="N26" t="n">
-        <v>0.999996781349182</v>
+        <v>0.4776782095432281</v>
       </c>
       <c r="O26" t="n">
-        <v>0.9455769062042236</v>
+        <v>0.5075450539588928</v>
       </c>
       <c r="P26" t="n">
-        <v>0.9961800575256348</v>
+        <v>0.1208597347140312</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.9985984563827516</v>
+        <v>0.09822849184274671</v>
       </c>
       <c r="R26" t="n">
-        <v>0.9999870657920836</v>
+        <v>0.8412332534790039</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9999940395355223</v>
+        <v>0.0873716548085212</v>
       </c>
       <c r="T26" t="n">
-        <v>0.9999953508377076</v>
+        <v>0.5767230987548828</v>
       </c>
       <c r="U26" t="n">
-        <v>0.9998199939727784</v>
+        <v>0.0843963399529457</v>
       </c>
       <c r="V26" t="n">
-        <v>0.9999845027923584</v>
+        <v>0.5539173483848572</v>
       </c>
       <c r="W26" t="n">
-        <v>0.9541416764259338</v>
+        <v>0.0827904194593429</v>
       </c>
       <c r="X26" t="n">
-        <v>0.998814582824707</v>
+        <v>0.592581033706665</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.9999090433120728</v>
+        <v>0.1575421094894409</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>26-22374085</t>
+          <t>26-22377005</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9996767044067384</v>
+        <v>0.4956611096858978</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9999470114707948</v>
+        <v>0.5498017072677612</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5822058916091919</v>
+        <v>0.9968640804290771</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9996542930603028</v>
+        <v>0.6377832889556885</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9999379515647888</v>
+        <v>0.5558623075485229</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9952232837677002</v>
+        <v>0.06429401040077209</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9793521165847778</v>
+        <v>0.0758150368928909</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6592943072319031</v>
+        <v>0.1076375022530555</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5399831533432007</v>
+        <v>0.1085228323936462</v>
       </c>
       <c r="K27" t="n">
-        <v>0.6623283624649048</v>
+        <v>0.9300855398178099</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9999952912330629</v>
+        <v>0.4509766101837158</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9999898672103882</v>
+        <v>0.5381131172180176</v>
       </c>
       <c r="N27" t="n">
-        <v>0.9998486042022704</v>
+        <v>0.4608882069587707</v>
       </c>
       <c r="O27" t="n">
-        <v>0.5491228103637695</v>
+        <v>0.1530936509370803</v>
       </c>
       <c r="P27" t="n">
-        <v>0.6957626938819885</v>
+        <v>0.9549038410186768</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.5466127991676331</v>
+        <v>0.1070173233747482</v>
       </c>
       <c r="R27" t="n">
-        <v>0.9986947178840636</v>
+        <v>0.9046738147735596</v>
       </c>
       <c r="S27" t="n">
-        <v>0.5357584357261658</v>
+        <v>0.1331427991390228</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9989027976989746</v>
+        <v>0.0715920478105545</v>
       </c>
       <c r="U27" t="n">
-        <v>0.5434134006500244</v>
+        <v>0.1027960106730461</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5485407710075378</v>
+        <v>0.535635232925415</v>
       </c>
       <c r="W27" t="n">
-        <v>0.997818410396576</v>
+        <v>0.100190982222557</v>
       </c>
       <c r="X27" t="n">
-        <v>0.9998100996017456</v>
+        <v>0.1553370356559753</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.9979358911514282</v>
+        <v>0.564821183681488</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>27-22377099</t>
+          <t>27-21377255</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9999138116836548</v>
+        <v>0.0695211216807365</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9999988079071044</v>
+        <v>0.4743365049362182</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9998939633369446</v>
+        <v>0.123544692993164</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8310126066207886</v>
+        <v>0.5542581677436829</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9995132088661194</v>
+        <v>0.9969015717506408</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9998242259025574</v>
+        <v>0.1446925103664398</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5488501191139221</v>
+        <v>0.6947570443153381</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9999779462814332</v>
+        <v>0.2309798449277877</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5331612229347229</v>
+        <v>0.0742841958999633</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9999732971191406</v>
+        <v>0.2248456478118896</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9998849034309388</v>
+        <v>0.1205077171325683</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9999263286590576</v>
+        <v>0.6273810267448425</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7981185913085938</v>
+        <v>0.1506351977586746</v>
       </c>
       <c r="O28" t="n">
-        <v>0.5293621420860291</v>
+        <v>0.1348588466644287</v>
       </c>
       <c r="P28" t="n">
-        <v>0.4625381827354431</v>
+        <v>0.1171081513166427</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.999963402748108</v>
+        <v>0.154569000005722</v>
       </c>
       <c r="R28" t="n">
-        <v>0.9999723434448242</v>
+        <v>0.1724109351634979</v>
       </c>
       <c r="S28" t="n">
-        <v>0.999999463558197</v>
+        <v>0.1137673407793045</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9609959721565248</v>
+        <v>0.1055503413081169</v>
       </c>
       <c r="U28" t="n">
-        <v>0.9999896287918092</v>
+        <v>0.1383834779262542</v>
       </c>
       <c r="V28" t="n">
-        <v>0.999970316886902</v>
+        <v>0.5437059998512268</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9996013641357422</v>
+        <v>0.0865938141942024</v>
       </c>
       <c r="X28" t="n">
-        <v>0.5738055109977722</v>
+        <v>0.5726182460784912</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.8507646322250366</v>
+        <v>0.08186867833137509</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>28-21377086</t>
+          <t>28-21081004</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9435847997665404</v>
+        <v>0.1253408342599868</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9997575879096984</v>
+        <v>0.1648815423250198</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9994419813156128</v>
+        <v>0.5636963248252869</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8563510179519653</v>
+        <v>0.1567015051841735</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9995142817497252</v>
+        <v>0.5591541528701782</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9998989105224608</v>
+        <v>0.1347186118364334</v>
       </c>
       <c r="H29" t="n">
-        <v>0.999244749546051</v>
+        <v>0.5464299321174622</v>
       </c>
       <c r="I29" t="n">
-        <v>0.710607647895813</v>
+        <v>0.2544309794902801</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9999502897262572</v>
+        <v>0.1057857424020767</v>
       </c>
       <c r="K29" t="n">
-        <v>0.979749083518982</v>
+        <v>0.1137782409787178</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9986010789871216</v>
+        <v>0.1155406311154365</v>
       </c>
       <c r="M29" t="n">
-        <v>0.949082851409912</v>
+        <v>0.2035959661006927</v>
       </c>
       <c r="N29" t="n">
-        <v>0.9995664954185486</v>
+        <v>0.5619819760322571</v>
       </c>
       <c r="O29" t="n">
-        <v>0.5532868504524231</v>
+        <v>0.0790521204471588</v>
       </c>
       <c r="P29" t="n">
-        <v>0.5395721793174744</v>
+        <v>0.2134499102830886</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.9979459047317504</v>
+        <v>0.1996505558490753</v>
       </c>
       <c r="R29" t="n">
-        <v>0.999858260154724</v>
+        <v>0.1308188885450363</v>
       </c>
       <c r="S29" t="n">
-        <v>0.5331465601921082</v>
+        <v>0.1224569529294967</v>
       </c>
       <c r="T29" t="n">
-        <v>0.2056610733270645</v>
+        <v>0.5483936071395874</v>
       </c>
       <c r="U29" t="n">
-        <v>0.9615725874900818</v>
+        <v>0.1710910201072693</v>
       </c>
       <c r="V29" t="n">
-        <v>0.9998957514762878</v>
+        <v>0.0716815963387489</v>
       </c>
       <c r="W29" t="n">
-        <v>0.9994776248931884</v>
+        <v>0.1264798790216446</v>
       </c>
       <c r="X29" t="n">
-        <v>0.9036940336227416</v>
+        <v>0.9979228973388672</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.5609891414642334</v>
+        <v>0.1042121648788452</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>29-21377061</t>
+          <t>29-21377119</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1408320367336273</v>
+        <v>0.5502889156341553</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7761451005935669</v>
+        <v>0.5678654313087463</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6610114574432373</v>
+        <v>0.2969245910644531</v>
       </c>
       <c r="E30" t="n">
-        <v>0.989544689655304</v>
+        <v>0.2434073686599731</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5416128039360046</v>
+        <v>0.1422088295221328</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9836857318878174</v>
+        <v>0.0918121337890625</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9992142915725708</v>
+        <v>0.5705709457397461</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9963696002960204</v>
+        <v>0.1010694950819015</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7038066983222961</v>
+        <v>0.0876468643546104</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9881770610809326</v>
+        <v>0.1881894469261169</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9979341626167296</v>
+        <v>0.0801132470369339</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9950321912765504</v>
+        <v>0.541287899017334</v>
       </c>
       <c r="N30" t="n">
-        <v>0.9992440938949584</v>
+        <v>0.5492717027664185</v>
       </c>
       <c r="O30" t="n">
-        <v>0.9995479583740234</v>
+        <v>0.5420958995819092</v>
       </c>
       <c r="P30" t="n">
-        <v>0.6060304641723633</v>
+        <v>0.1093906313180923</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.8327673077583313</v>
+        <v>0.0898935198783874</v>
       </c>
       <c r="R30" t="n">
-        <v>0.9996745586395264</v>
+        <v>0.5209061503410339</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9990445375442504</v>
+        <v>0.0882975310087204</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9992794990539552</v>
+        <v>0.2424772381782531</v>
       </c>
       <c r="U30" t="n">
-        <v>0.999206840991974</v>
+        <v>0.1140103042125701</v>
       </c>
       <c r="V30" t="n">
-        <v>0.9989097118377686</v>
+        <v>0.39406418800354</v>
       </c>
       <c r="W30" t="n">
-        <v>0.6873560547828674</v>
+        <v>0.9992878437042236</v>
       </c>
       <c r="X30" t="n">
-        <v>0.555535614490509</v>
+        <v>0.5576831698417664</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.5466872453689575</v>
+        <v>0.1914108544588089</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>30-21377172</t>
+          <t>30-y2314105</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.5415073037147522</v>
+        <v>0.5985488891601562</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9998124837875366</v>
+        <v>0.9529471397399902</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9995464086532592</v>
+        <v>0.1395400464534759</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9998222589492798</v>
+        <v>0.2896164059638977</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9999545812606812</v>
+        <v>0.09708221256732941</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9999489188194276</v>
+        <v>0.1353644132614135</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9910825490951538</v>
+        <v>0.573949933052063</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3638649582862854</v>
+        <v>0.963388979434967</v>
       </c>
       <c r="J31" t="n">
-        <v>0.212446928024292</v>
+        <v>0.083220824599266</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9738526344299316</v>
+        <v>0.1390886902809143</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9977166652679444</v>
+        <v>0.0857017263770103</v>
       </c>
       <c r="M31" t="n">
-        <v>0.9999602437019348</v>
+        <v>0.9996915459632874</v>
       </c>
       <c r="N31" t="n">
-        <v>0.5380248427391052</v>
+        <v>0.08129072189331051</v>
       </c>
       <c r="O31" t="n">
-        <v>0.9511289596557616</v>
+        <v>0.6070144176483154</v>
       </c>
       <c r="P31" t="n">
-        <v>0.9996122121810912</v>
+        <v>0.5544026494026184</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.9992914795875548</v>
+        <v>0.1714724600315094</v>
       </c>
       <c r="R31" t="n">
-        <v>0.9997833371162416</v>
+        <v>0.638411283493042</v>
       </c>
       <c r="S31" t="n">
-        <v>0.999842405319214</v>
+        <v>0.1082824617624282</v>
       </c>
       <c r="T31" t="n">
-        <v>0.6436853408813477</v>
+        <v>0.548829197883606</v>
       </c>
       <c r="U31" t="n">
-        <v>0.9998310804367064</v>
+        <v>0.0948705822229385</v>
       </c>
       <c r="V31" t="n">
-        <v>0.9999846220016479</v>
+        <v>0.5381128787994385</v>
       </c>
       <c r="W31" t="n">
-        <v>0.6728755831718445</v>
+        <v>0.1164324209094047</v>
       </c>
       <c r="X31" t="n">
-        <v>0.710382342338562</v>
+        <v>0.146282210946083</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.9998960494995116</v>
+        <v>0.09033094346523279</v>
       </c>
     </row>
   </sheetData>
